--- a/Excel_References.xlsx
+++ b/Excel_References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ennosgermancourse-my.sharepoint.com/personal/ennowinkler_ennosgermancourse_onmicrosoft_com/Documents/excelbib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{92D5FB84-227A-4306-9187-93183921DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC85A9C-EB57-4C5E-B91D-4D5B97ED6109}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{92D5FB84-227A-4306-9187-93183921DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07763175-98AC-49F8-AEA9-4D5E9F8697FC}"/>
   <bookViews>
     <workbookView xWindow="-28605" yWindow="-5340" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Bibliography" sheetId="21" r:id="rId2"/>
     <sheet name="Add References Manually" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" iterateCount="1"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="1" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Bibtex Citation</t>
   </si>
@@ -507,6 +507,18 @@
   year = {},
   note = {},
   annote = {}
+}</t>
+  </si>
+  <si>
+    <t>@article{test2024,
+  title = {A sample article},
+  volume = {16},
+  journal = {Awesome Journal},
+  publisher = {Awesome Publisher},
+  author = {Doe,  Kim},
+  year = {2024},
+  month = aug,
+  pages = {154–158}
 }</t>
   </si>
 </sst>
@@ -17246,7 +17258,7 @@
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -17325,35 +17337,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:18" ht="150" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="B2" s="15" t="str">
         <f>IFERROR("@" &amp; MID(A2, SEARCH("{", A2) + 1, SEARCH(",", A2) - SEARCH("{", A2) - 1), "")</f>
-        <v/>
+        <v>@test2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f t="shared" ref="C2" si="0">"[" &amp; B2 &amp; "]"</f>
-        <v>[]</v>
+        <v>[@test2024]</v>
       </c>
       <c r="D2" s="13" t="str">
         <f>IFERROR(MID(A2,SEARCH("year = {",A2)+8,4), "")</f>
-        <v/>
+        <v>2024</v>
       </c>
       <c r="E2" s="13" t="str">
         <f>IFERROR(MID(A2, SEARCH("author = {", A2) + 10, SEARCH("}", A2, SEARCH("author = {", A2)) - SEARCH("author = {", A2) - 10), "")</f>
-        <v/>
+        <v>Doe,  Kim</v>
       </c>
       <c r="F2" s="14" t="str">
         <f>IFERROR(IF(ISERROR(FIND("title =",A2)),"",MID(A2,FIND("title =",A2)+9,FIND("}",A2,FIND("title =",A2))-FIND("title =",A2)-9)),"")</f>
-        <v/>
+        <v>A sample article</v>
       </c>
       <c r="G2" s="16" t="str">
         <f>IFERROR("https://doi.org/" &amp; MID(A2, SEARCH("doi = {", A2) + 7, FIND("}", A2, SEARCH("doi = {", A2)) - SEARCH("doi = {", A2) - 7),"")</f>
         <v/>
       </c>
-      <c r="H2" s="17" t="str">
+      <c r="H2" s="17">
         <f ca="1">IF(A2&lt;&gt;"",IF(H2&lt;&gt;"",H2,NOW()),"")</f>
-        <v/>
+        <v>45438.99941921296</v>
       </c>
       <c r="I2" s="1"/>
     </row>

--- a/Excel_References.xlsx
+++ b/Excel_References.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27804"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ennosgermancourse-my.sharepoint.com/personal/ennowinkler_ennosgermancourse_onmicrosoft_com/Documents/excelbib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{92D5FB84-227A-4306-9187-93183921DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07763175-98AC-49F8-AEA9-4D5E9F8697FC}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{92D5FB84-227A-4306-9187-93183921DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286FBABD-F841-4281-A4BE-56FD0EC033A9}"/>
   <bookViews>
     <workbookView xWindow="-28605" yWindow="-5340" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,9 @@
   <commentList>
     <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3CDE73AC-ED27-46AB-BBDA-4F0A3FEE1A4B}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     You can add a link to the pdf-file here</t>
       </text>
     </comment>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>@article{test2024,
+  title = {A sample article},
+  volume = {16},
+  journal = {Awesome Journal},
+  publisher = {Awesome Publisher},
+  author = {Doe,  Kim},
+  year = {2024},
+  month = aug,
+  pages = {154–158}
+}</t>
   </si>
   <si>
     <t>Bibtex templates</t>
@@ -509,24 +521,12 @@
   annote = {}
 }</t>
   </si>
-  <si>
-    <t>@article{test2024,
-  title = {A sample article},
-  volume = {16},
-  journal = {Awesome Journal},
-  publisher = {Awesome Publisher},
-  author = {Doe,  Kim},
-  year = {2024},
-  month = aug,
-  pages = {154–158}
-}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,9 +722,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -762,7 +762,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -868,7 +868,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1010,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,7 +1057,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="65.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="23" customWidth="1"/>
@@ -1077,7 +1077,7 @@
     <col min="18" max="18" width="126.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="36">
       <c r="A1" s="18"/>
       <c r="B1" s="19" t="str">
         <f t="shared" ref="B1:B64" si="0">IFERROR("@" &amp; MID(A1, SEARCH("{", A1) + 1, SEARCH(",", A1) - SEARCH("{", A1) - 1), "")</f>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="36">
       <c r="A2" s="18"/>
       <c r="B2" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="36">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="36">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="36">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="36">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="36">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="36">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="36">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="36">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="36">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="36">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="36">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="36">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="36">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="36">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="36">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="36">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="36">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="36">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="36">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="36">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="36">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" ht="36">
       <c r="A27" s="18"/>
       <c r="B27" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" ht="36">
       <c r="A28" s="18"/>
       <c r="B28" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" ht="36">
       <c r="A29" s="18"/>
       <c r="B29" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" ht="36">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" ht="36">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" ht="36">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" ht="36">
       <c r="A33" s="18"/>
       <c r="B33" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" ht="36">
       <c r="A34" s="18"/>
       <c r="B34" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" ht="36">
       <c r="A35" s="18"/>
       <c r="B35" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" ht="36">
       <c r="A36" s="18"/>
       <c r="B36" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" ht="36">
       <c r="A37" s="18"/>
       <c r="B37" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="36">
       <c r="A38" s="18"/>
       <c r="B38" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" ht="36">
       <c r="A39" s="18"/>
       <c r="B39" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" ht="36">
       <c r="A40" s="18"/>
       <c r="B40" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" ht="36">
       <c r="A41" s="18"/>
       <c r="B41" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" ht="36">
       <c r="A42" s="18"/>
       <c r="B42" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" ht="36">
       <c r="A43" s="18"/>
       <c r="B43" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" ht="36">
       <c r="A44" s="18"/>
       <c r="B44" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" ht="36">
       <c r="A45" s="18"/>
       <c r="B45" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" ht="36">
       <c r="A46" s="18"/>
       <c r="B46" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" ht="36">
       <c r="A47" s="18"/>
       <c r="B47" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" ht="36">
       <c r="A48" s="18"/>
       <c r="B48" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" ht="36">
       <c r="A49" s="18"/>
       <c r="B49" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" ht="36">
       <c r="A50" s="18"/>
       <c r="B50" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" ht="36">
       <c r="A51" s="18"/>
       <c r="B51" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" ht="36">
       <c r="A52" s="18"/>
       <c r="B52" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" ht="36">
       <c r="A53" s="18"/>
       <c r="B53" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" ht="36">
       <c r="A54" s="18"/>
       <c r="B54" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" ht="36">
       <c r="A55" s="18"/>
       <c r="B55" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" ht="36">
       <c r="A56" s="18"/>
       <c r="B56" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" ht="36">
       <c r="A57" s="18"/>
       <c r="B57" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" ht="36">
       <c r="A58" s="18"/>
       <c r="B58" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" ht="36">
       <c r="A59" s="18"/>
       <c r="B59" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" ht="36">
       <c r="A60" s="18"/>
       <c r="B60" s="19" t="str">
         <f t="shared" si="0"/>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" ht="36">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="str">
         <f t="shared" si="0"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" ht="36">
       <c r="A62" s="18"/>
       <c r="B62" s="19" t="str">
         <f t="shared" si="0"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" ht="36">
       <c r="A63" s="18"/>
       <c r="B63" s="19" t="str">
         <f t="shared" si="0"/>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" ht="36">
       <c r="A64" s="18"/>
       <c r="B64" s="19" t="str">
         <f t="shared" si="0"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" ht="36">
       <c r="A65" s="18"/>
       <c r="B65" s="19" t="str">
         <f t="shared" ref="B65:B128" si="7">IFERROR("@" &amp; MID(A65, SEARCH("{", A65) + 1, SEARCH(",", A65) - SEARCH("{", A65) - 1), "")</f>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" ht="36">
       <c r="A66" s="18"/>
       <c r="B66" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" ht="36">
       <c r="A67" s="18"/>
       <c r="B67" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" ht="36">
       <c r="A68" s="18"/>
       <c r="B68" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" ht="36">
       <c r="A69" s="18"/>
       <c r="B69" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" ht="36">
       <c r="A70" s="18"/>
       <c r="B70" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" ht="36">
       <c r="A71" s="18"/>
       <c r="B71" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" ht="36">
       <c r="A72" s="18"/>
       <c r="B72" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" ht="36">
       <c r="A73" s="18"/>
       <c r="B73" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" ht="36">
       <c r="A74" s="18"/>
       <c r="B74" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" ht="36">
       <c r="A75" s="18"/>
       <c r="B75" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" ht="36">
       <c r="A76" s="18"/>
       <c r="B76" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" ht="36">
       <c r="A77" s="18"/>
       <c r="B77" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" ht="36">
       <c r="A78" s="18"/>
       <c r="B78" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" ht="36">
       <c r="A79" s="18"/>
       <c r="B79" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" ht="36">
       <c r="A80" s="18"/>
       <c r="B80" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" ht="36">
       <c r="A81" s="18"/>
       <c r="B81" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" ht="36">
       <c r="A82" s="18"/>
       <c r="B82" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" ht="36">
       <c r="A83" s="18"/>
       <c r="B83" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" ht="36">
       <c r="A84" s="18"/>
       <c r="B84" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" ht="36">
       <c r="A85" s="18"/>
       <c r="B85" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" ht="36">
       <c r="A86" s="18"/>
       <c r="B86" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" ht="36">
       <c r="A87" s="18"/>
       <c r="B87" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" ht="36">
       <c r="A88" s="18"/>
       <c r="B88" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" ht="36">
       <c r="A89" s="18"/>
       <c r="B89" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" ht="36">
       <c r="A90" s="18"/>
       <c r="B90" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" ht="36">
       <c r="A91" s="18"/>
       <c r="B91" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" ht="36">
       <c r="A92" s="18"/>
       <c r="B92" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" ht="36">
       <c r="A93" s="18"/>
       <c r="B93" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" ht="36">
       <c r="A94" s="18"/>
       <c r="B94" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" ht="36">
       <c r="A95" s="18"/>
       <c r="B95" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" ht="36">
       <c r="A96" s="18"/>
       <c r="B96" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" ht="36">
       <c r="A97" s="18"/>
       <c r="B97" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" ht="36">
       <c r="A98" s="18"/>
       <c r="B98" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" ht="36">
       <c r="A99" s="18"/>
       <c r="B99" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" ht="36">
       <c r="A100" s="18"/>
       <c r="B100" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" ht="36">
       <c r="A101" s="18"/>
       <c r="B101" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" ht="36">
       <c r="A102" s="18"/>
       <c r="B102" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" ht="36">
       <c r="A103" s="18"/>
       <c r="B103" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" ht="36">
       <c r="A104" s="18"/>
       <c r="B104" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" ht="36">
       <c r="A105" s="18"/>
       <c r="B105" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" ht="36">
       <c r="A106" s="18"/>
       <c r="B106" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" ht="36">
       <c r="A107" s="18"/>
       <c r="B107" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" ht="36">
       <c r="A108" s="18"/>
       <c r="B108" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" ht="36">
       <c r="A109" s="18"/>
       <c r="B109" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" ht="36">
       <c r="A110" s="18"/>
       <c r="B110" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" ht="36">
       <c r="A111" s="18"/>
       <c r="B111" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" ht="36">
       <c r="A112" s="18"/>
       <c r="B112" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" ht="36">
       <c r="A113" s="18"/>
       <c r="B113" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" ht="36">
       <c r="A114" s="18"/>
       <c r="B114" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" ht="36">
       <c r="A115" s="18"/>
       <c r="B115" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" ht="36">
       <c r="A116" s="18"/>
       <c r="B116" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" ht="36">
       <c r="A117" s="18"/>
       <c r="B117" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" ht="36">
       <c r="A118" s="18"/>
       <c r="B118" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" ht="36">
       <c r="A119" s="18"/>
       <c r="B119" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" ht="36">
       <c r="A120" s="18"/>
       <c r="B120" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" ht="36">
       <c r="A121" s="18"/>
       <c r="B121" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" ht="36">
       <c r="A122" s="18"/>
       <c r="B122" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" ht="36">
       <c r="A123" s="18"/>
       <c r="B123" s="19" t="str">
         <f t="shared" si="7"/>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" ht="36">
       <c r="A124" s="18"/>
       <c r="B124" s="19" t="str">
         <f t="shared" si="7"/>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" ht="36">
       <c r="A125" s="18"/>
       <c r="B125" s="19" t="str">
         <f t="shared" si="7"/>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" ht="36">
       <c r="A126" s="18"/>
       <c r="B126" s="19" t="str">
         <f t="shared" si="7"/>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" ht="36">
       <c r="A127" s="18"/>
       <c r="B127" s="19" t="str">
         <f t="shared" si="7"/>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" ht="36">
       <c r="A128" s="18"/>
       <c r="B128" s="19" t="str">
         <f t="shared" si="7"/>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" ht="36">
       <c r="A129" s="18"/>
       <c r="B129" s="19" t="str">
         <f t="shared" ref="B129:B192" si="14">IFERROR("@" &amp; MID(A129, SEARCH("{", A129) + 1, SEARCH(",", A129) - SEARCH("{", A129) - 1), "")</f>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" ht="36">
       <c r="A130" s="18"/>
       <c r="B130" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" ht="36">
       <c r="A131" s="18"/>
       <c r="B131" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" ht="36">
       <c r="A132" s="18"/>
       <c r="B132" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" ht="36">
       <c r="A133" s="18"/>
       <c r="B133" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" ht="36">
       <c r="A134" s="18"/>
       <c r="B134" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" ht="36">
       <c r="A135" s="18"/>
       <c r="B135" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" ht="36">
       <c r="A136" s="18"/>
       <c r="B136" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" ht="36">
       <c r="A137" s="18"/>
       <c r="B137" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" ht="36">
       <c r="A138" s="18"/>
       <c r="B138" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" ht="36">
       <c r="A139" s="18"/>
       <c r="B139" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" ht="36">
       <c r="A140" s="18"/>
       <c r="B140" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" ht="36">
       <c r="A141" s="18"/>
       <c r="B141" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" ht="36">
       <c r="A142" s="18"/>
       <c r="B142" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" ht="36">
       <c r="A143" s="18"/>
       <c r="B143" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" ht="36">
       <c r="A144" s="18"/>
       <c r="B144" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" ht="36">
       <c r="A145" s="18"/>
       <c r="B145" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" ht="36">
       <c r="A146" s="18"/>
       <c r="B146" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" ht="36">
       <c r="A147" s="18"/>
       <c r="B147" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" ht="36">
       <c r="A148" s="18"/>
       <c r="B148" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" ht="36">
       <c r="A149" s="18"/>
       <c r="B149" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" ht="36">
       <c r="A150" s="18"/>
       <c r="B150" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" ht="36">
       <c r="A151" s="18"/>
       <c r="B151" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" ht="36">
       <c r="A152" s="18"/>
       <c r="B152" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" ht="36">
       <c r="A153" s="18"/>
       <c r="B153" s="19" t="str">
         <f t="shared" si="14"/>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" ht="36">
       <c r="A154" s="18"/>
       <c r="B154" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" ht="36">
       <c r="A155" s="18"/>
       <c r="B155" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" ht="36">
       <c r="A156" s="18"/>
       <c r="B156" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" ht="36">
       <c r="A157" s="18"/>
       <c r="B157" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" ht="36">
       <c r="A158" s="18"/>
       <c r="B158" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" ht="36">
       <c r="A159" s="18"/>
       <c r="B159" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" ht="36">
       <c r="A160" s="18"/>
       <c r="B160" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" ht="36">
       <c r="A161" s="18"/>
       <c r="B161" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" ht="36">
       <c r="A162" s="18"/>
       <c r="B162" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" ht="36">
       <c r="A163" s="18"/>
       <c r="B163" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" ht="36">
       <c r="A164" s="18"/>
       <c r="B164" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" ht="36">
       <c r="A165" s="18"/>
       <c r="B165" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" ht="36">
       <c r="A166" s="18"/>
       <c r="B166" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" ht="36">
       <c r="A167" s="18"/>
       <c r="B167" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" ht="36">
       <c r="A168" s="18"/>
       <c r="B168" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" ht="36">
       <c r="A169" s="18"/>
       <c r="B169" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" ht="36">
       <c r="A170" s="18"/>
       <c r="B170" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" ht="36">
       <c r="A171" s="18"/>
       <c r="B171" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" ht="36">
       <c r="A172" s="18"/>
       <c r="B172" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" ht="36">
       <c r="A173" s="18"/>
       <c r="B173" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" ht="36">
       <c r="A174" s="18"/>
       <c r="B174" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" ht="36">
       <c r="A175" s="18"/>
       <c r="B175" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" ht="36">
       <c r="A176" s="18"/>
       <c r="B176" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" ht="36">
       <c r="A177" s="18"/>
       <c r="B177" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" ht="36">
       <c r="A178" s="18"/>
       <c r="B178" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" ht="36">
       <c r="A179" s="18"/>
       <c r="B179" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" ht="36">
       <c r="A180" s="18"/>
       <c r="B180" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" ht="36">
       <c r="A181" s="18"/>
       <c r="B181" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" ht="36">
       <c r="A182" s="18"/>
       <c r="B182" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" ht="36">
       <c r="A183" s="18"/>
       <c r="B183" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" ht="36">
       <c r="A184" s="18"/>
       <c r="B184" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" ht="36">
       <c r="A185" s="18"/>
       <c r="B185" s="19" t="str">
         <f t="shared" si="14"/>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" ht="36">
       <c r="A186" s="18"/>
       <c r="B186" s="19" t="str">
         <f t="shared" si="14"/>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" ht="36">
       <c r="A187" s="18"/>
       <c r="B187" s="19" t="str">
         <f t="shared" si="14"/>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" ht="36">
       <c r="A188" s="18"/>
       <c r="B188" s="19" t="str">
         <f t="shared" si="14"/>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" ht="36">
       <c r="A189" s="18"/>
       <c r="B189" s="19" t="str">
         <f t="shared" si="14"/>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" ht="36">
       <c r="A190" s="18"/>
       <c r="B190" s="19" t="str">
         <f t="shared" si="14"/>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" ht="36">
       <c r="A191" s="18"/>
       <c r="B191" s="19" t="str">
         <f t="shared" si="14"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" ht="36">
       <c r="A192" s="18"/>
       <c r="B192" s="19" t="str">
         <f t="shared" si="14"/>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" ht="36">
       <c r="A193" s="18"/>
       <c r="B193" s="19" t="str">
         <f t="shared" ref="B193:B256" si="21">IFERROR("@" &amp; MID(A193, SEARCH("{", A193) + 1, SEARCH(",", A193) - SEARCH("{", A193) - 1), "")</f>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" ht="36">
       <c r="A194" s="18"/>
       <c r="B194" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" ht="36">
       <c r="A195" s="18"/>
       <c r="B195" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" ht="36">
       <c r="A196" s="18"/>
       <c r="B196" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" ht="36">
       <c r="A197" s="18"/>
       <c r="B197" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" ht="36">
       <c r="A198" s="18"/>
       <c r="B198" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" ht="36">
       <c r="A199" s="18"/>
       <c r="B199" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" ht="36">
       <c r="A200" s="18"/>
       <c r="B200" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" ht="36">
       <c r="A201" s="18"/>
       <c r="B201" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" ht="36">
       <c r="A202" s="18"/>
       <c r="B202" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" ht="36">
       <c r="A203" s="18"/>
       <c r="B203" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" ht="36">
       <c r="A204" s="18"/>
       <c r="B204" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" ht="36">
       <c r="A205" s="18"/>
       <c r="B205" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" ht="36">
       <c r="A206" s="18"/>
       <c r="B206" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" ht="36">
       <c r="A207" s="18"/>
       <c r="B207" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" ht="36">
       <c r="A208" s="18"/>
       <c r="B208" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" ht="36">
       <c r="A209" s="18"/>
       <c r="B209" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" ht="36">
       <c r="A210" s="18"/>
       <c r="B210" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" ht="36">
       <c r="A211" s="18"/>
       <c r="B211" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" ht="36">
       <c r="A212" s="18"/>
       <c r="B212" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" ht="36">
       <c r="A213" s="18"/>
       <c r="B213" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" ht="36">
       <c r="A214" s="18"/>
       <c r="B214" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" ht="36">
       <c r="A215" s="18"/>
       <c r="B215" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" ht="36">
       <c r="A216" s="18"/>
       <c r="B216" s="19" t="str">
         <f t="shared" si="21"/>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" ht="36">
       <c r="A217" s="18"/>
       <c r="B217" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" ht="36">
       <c r="A218" s="18"/>
       <c r="B218" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" ht="36">
       <c r="A219" s="18"/>
       <c r="B219" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" ht="36">
       <c r="A220" s="18"/>
       <c r="B220" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" ht="36">
       <c r="A221" s="18"/>
       <c r="B221" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" ht="36">
       <c r="A222" s="18"/>
       <c r="B222" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" ht="36">
       <c r="A223" s="18"/>
       <c r="B223" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" ht="36">
       <c r="A224" s="18"/>
       <c r="B224" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" ht="36">
       <c r="A225" s="18"/>
       <c r="B225" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" ht="36">
       <c r="A226" s="18"/>
       <c r="B226" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" ht="36">
       <c r="A227" s="18"/>
       <c r="B227" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" ht="36">
       <c r="A228" s="18"/>
       <c r="B228" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" ht="36">
       <c r="A229" s="18"/>
       <c r="B229" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" ht="36">
       <c r="A230" s="18"/>
       <c r="B230" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" ht="36">
       <c r="A231" s="18"/>
       <c r="B231" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" ht="36">
       <c r="A232" s="18"/>
       <c r="B232" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" ht="36">
       <c r="A233" s="18"/>
       <c r="B233" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" ht="36">
       <c r="A234" s="18"/>
       <c r="B234" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" ht="36">
       <c r="A235" s="18"/>
       <c r="B235" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" ht="36">
       <c r="A236" s="18"/>
       <c r="B236" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" ht="36">
       <c r="A237" s="18"/>
       <c r="B237" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" ht="36">
       <c r="A238" s="18"/>
       <c r="B238" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" ht="36">
       <c r="A239" s="18"/>
       <c r="B239" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" ht="36">
       <c r="A240" s="18"/>
       <c r="B240" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" ht="36">
       <c r="A241" s="18"/>
       <c r="B241" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" ht="36">
       <c r="A242" s="18"/>
       <c r="B242" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" ht="36">
       <c r="A243" s="18"/>
       <c r="B243" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" ht="36">
       <c r="A244" s="18"/>
       <c r="B244" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" ht="36">
       <c r="A245" s="18"/>
       <c r="B245" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" ht="36">
       <c r="A246" s="18"/>
       <c r="B246" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" ht="36">
       <c r="A247" s="18"/>
       <c r="B247" s="19" t="str">
         <f t="shared" si="21"/>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" ht="36">
       <c r="A248" s="18"/>
       <c r="B248" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" ht="36">
       <c r="A249" s="18"/>
       <c r="B249" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" ht="36">
       <c r="A250" s="18"/>
       <c r="B250" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" ht="36">
       <c r="A251" s="18"/>
       <c r="B251" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:9" ht="36">
       <c r="A252" s="18"/>
       <c r="B252" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" ht="36">
       <c r="A253" s="18"/>
       <c r="B253" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" ht="36">
       <c r="A254" s="18"/>
       <c r="B254" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" ht="36">
       <c r="A255" s="18"/>
       <c r="B255" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" ht="36">
       <c r="A256" s="18"/>
       <c r="B256" s="19" t="str">
         <f t="shared" si="21"/>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" ht="36">
       <c r="A257" s="18"/>
       <c r="B257" s="19" t="str">
         <f t="shared" ref="B257:B320" si="28">IFERROR("@" &amp; MID(A257, SEARCH("{", A257) + 1, SEARCH(",", A257) - SEARCH("{", A257) - 1), "")</f>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" ht="36">
       <c r="A258" s="18"/>
       <c r="B258" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" ht="36">
       <c r="A259" s="18"/>
       <c r="B259" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" ht="36">
       <c r="A260" s="18"/>
       <c r="B260" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" ht="36">
       <c r="A261" s="18"/>
       <c r="B261" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" ht="36">
       <c r="A262" s="18"/>
       <c r="B262" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:9" ht="36">
       <c r="A263" s="18"/>
       <c r="B263" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" ht="36">
       <c r="A264" s="18"/>
       <c r="B264" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" ht="36">
       <c r="A265" s="18"/>
       <c r="B265" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" ht="36">
       <c r="A266" s="18"/>
       <c r="B266" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" ht="36">
       <c r="A267" s="18"/>
       <c r="B267" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" ht="36">
       <c r="A268" s="18"/>
       <c r="B268" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" ht="36">
       <c r="A269" s="18"/>
       <c r="B269" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" ht="36">
       <c r="A270" s="18"/>
       <c r="B270" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" ht="36">
       <c r="A271" s="18"/>
       <c r="B271" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" ht="36">
       <c r="A272" s="18"/>
       <c r="B272" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" ht="36">
       <c r="A273" s="18"/>
       <c r="B273" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:9" ht="36">
       <c r="A274" s="18"/>
       <c r="B274" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:9" ht="36">
       <c r="A275" s="18"/>
       <c r="B275" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:9" ht="36">
       <c r="A276" s="18"/>
       <c r="B276" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:9" ht="36">
       <c r="A277" s="18"/>
       <c r="B277" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:9" ht="36">
       <c r="A278" s="18"/>
       <c r="B278" s="19" t="str">
         <f t="shared" si="28"/>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:9" ht="36">
       <c r="A279" s="18"/>
       <c r="B279" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:9" ht="36">
       <c r="A280" s="18"/>
       <c r="B280" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:9" ht="36">
       <c r="A281" s="18"/>
       <c r="B281" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:9" ht="36">
       <c r="A282" s="18"/>
       <c r="B282" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:9" ht="36">
       <c r="A283" s="18"/>
       <c r="B283" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:9" ht="36">
       <c r="A284" s="18"/>
       <c r="B284" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:9" ht="36">
       <c r="A285" s="18"/>
       <c r="B285" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:9" ht="36">
       <c r="A286" s="18"/>
       <c r="B286" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:9" ht="36">
       <c r="A287" s="18"/>
       <c r="B287" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:9" ht="36">
       <c r="A288" s="18"/>
       <c r="B288" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" ht="36">
       <c r="A289" s="18"/>
       <c r="B289" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" ht="36">
       <c r="A290" s="18"/>
       <c r="B290" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" ht="36">
       <c r="A291" s="18"/>
       <c r="B291" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" ht="36">
       <c r="A292" s="18"/>
       <c r="B292" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" ht="36">
       <c r="A293" s="18"/>
       <c r="B293" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" ht="36">
       <c r="A294" s="18"/>
       <c r="B294" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" ht="36">
       <c r="A295" s="18"/>
       <c r="B295" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" ht="36">
       <c r="A296" s="18"/>
       <c r="B296" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10549,7 +10549,7 @@
       </c>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" ht="36">
       <c r="A297" s="18"/>
       <c r="B297" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" ht="36">
       <c r="A298" s="18"/>
       <c r="B298" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" ht="36">
       <c r="A299" s="18"/>
       <c r="B299" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" ht="36">
       <c r="A300" s="18"/>
       <c r="B300" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" ht="36">
       <c r="A301" s="18"/>
       <c r="B301" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" ht="36">
       <c r="A302" s="18"/>
       <c r="B302" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" ht="36">
       <c r="A303" s="18"/>
       <c r="B303" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" ht="36">
       <c r="A304" s="18"/>
       <c r="B304" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" ht="36">
       <c r="A305" s="18"/>
       <c r="B305" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:9" ht="36">
       <c r="A306" s="18"/>
       <c r="B306" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" ht="36">
       <c r="A307" s="18"/>
       <c r="B307" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" ht="36">
       <c r="A308" s="18"/>
       <c r="B308" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" ht="36">
       <c r="A309" s="18"/>
       <c r="B309" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" ht="36">
       <c r="A310" s="18"/>
       <c r="B310" s="19" t="str">
         <f t="shared" si="28"/>
@@ -10997,7 +10997,7 @@
       </c>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" ht="36">
       <c r="A311" s="18"/>
       <c r="B311" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" ht="36">
       <c r="A312" s="18"/>
       <c r="B312" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" ht="36">
       <c r="A313" s="18"/>
       <c r="B313" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11093,7 +11093,7 @@
       </c>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" ht="36">
       <c r="A314" s="18"/>
       <c r="B314" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" ht="36">
       <c r="A315" s="18"/>
       <c r="B315" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" ht="36">
       <c r="A316" s="18"/>
       <c r="B316" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11189,7 +11189,7 @@
       </c>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" ht="36">
       <c r="A317" s="18"/>
       <c r="B317" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" ht="36">
       <c r="A318" s="18"/>
       <c r="B318" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" ht="36">
       <c r="A319" s="18"/>
       <c r="B319" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" ht="36">
       <c r="A320" s="18"/>
       <c r="B320" s="19" t="str">
         <f t="shared" si="28"/>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" ht="36">
       <c r="A321" s="18"/>
       <c r="B321" s="19" t="str">
         <f t="shared" ref="B321:B384" si="35">IFERROR("@" &amp; MID(A321, SEARCH("{", A321) + 1, SEARCH(",", A321) - SEARCH("{", A321) - 1), "")</f>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" ht="36">
       <c r="A322" s="18"/>
       <c r="B322" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" ht="36">
       <c r="A323" s="18"/>
       <c r="B323" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" ht="36">
       <c r="A324" s="18"/>
       <c r="B324" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" ht="36">
       <c r="A325" s="18"/>
       <c r="B325" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" ht="36">
       <c r="A326" s="18"/>
       <c r="B326" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" ht="36">
       <c r="A327" s="18"/>
       <c r="B327" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" ht="36">
       <c r="A328" s="18"/>
       <c r="B328" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" ht="36">
       <c r="A329" s="18"/>
       <c r="B329" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" ht="36">
       <c r="A330" s="18"/>
       <c r="B330" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" ht="36">
       <c r="A331" s="18"/>
       <c r="B331" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" ht="36">
       <c r="A332" s="18"/>
       <c r="B332" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" ht="36">
       <c r="A333" s="18"/>
       <c r="B333" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" ht="36">
       <c r="A334" s="18"/>
       <c r="B334" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" ht="36">
       <c r="A335" s="18"/>
       <c r="B335" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" ht="36">
       <c r="A336" s="18"/>
       <c r="B336" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:9" ht="36">
       <c r="A337" s="18"/>
       <c r="B337" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:9" ht="36">
       <c r="A338" s="18"/>
       <c r="B338" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:9" ht="36">
       <c r="A339" s="18"/>
       <c r="B339" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:9" ht="36">
       <c r="A340" s="18"/>
       <c r="B340" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:9" ht="36">
       <c r="A341" s="18"/>
       <c r="B341" s="19" t="str">
         <f t="shared" si="35"/>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:9" ht="36">
       <c r="A342" s="18"/>
       <c r="B342" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:9" ht="36">
       <c r="A343" s="18"/>
       <c r="B343" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12053,7 +12053,7 @@
       </c>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:9" ht="36">
       <c r="A344" s="18"/>
       <c r="B344" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:9" ht="36">
       <c r="A345" s="18"/>
       <c r="B345" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:9" ht="36">
       <c r="A346" s="18"/>
       <c r="B346" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:9" ht="36">
       <c r="A347" s="18"/>
       <c r="B347" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:9" ht="36">
       <c r="A348" s="18"/>
       <c r="B348" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:9" ht="36">
       <c r="A349" s="18"/>
       <c r="B349" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:9" ht="36">
       <c r="A350" s="18"/>
       <c r="B350" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:9" ht="36">
       <c r="A351" s="18"/>
       <c r="B351" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:9" ht="36">
       <c r="A352" s="18"/>
       <c r="B352" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:9" ht="36">
       <c r="A353" s="18"/>
       <c r="B353" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:9" ht="36">
       <c r="A354" s="18"/>
       <c r="B354" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="I354" s="1"/>
     </row>
-    <row r="355" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:9" ht="36">
       <c r="A355" s="18"/>
       <c r="B355" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:9" ht="36">
       <c r="A356" s="18"/>
       <c r="B356" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:9" ht="36">
       <c r="A357" s="18"/>
       <c r="B357" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:9" ht="36">
       <c r="A358" s="18"/>
       <c r="B358" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="I358" s="1"/>
     </row>
-    <row r="359" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:9" ht="36">
       <c r="A359" s="18"/>
       <c r="B359" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:9" ht="36">
       <c r="A360" s="18"/>
       <c r="B360" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:9" ht="36">
       <c r="A361" s="18"/>
       <c r="B361" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:9" ht="36">
       <c r="A362" s="18"/>
       <c r="B362" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:9" ht="36">
       <c r="A363" s="18"/>
       <c r="B363" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:9" ht="36">
       <c r="A364" s="18"/>
       <c r="B364" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12725,7 +12725,7 @@
       </c>
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:9" ht="36">
       <c r="A365" s="18"/>
       <c r="B365" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:9" ht="36">
       <c r="A366" s="18"/>
       <c r="B366" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="I366" s="1"/>
     </row>
-    <row r="367" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:9" ht="36">
       <c r="A367" s="18"/>
       <c r="B367" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="I367" s="1"/>
     </row>
-    <row r="368" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:9" ht="36">
       <c r="A368" s="18"/>
       <c r="B368" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="I368" s="1"/>
     </row>
-    <row r="369" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:9" ht="36">
       <c r="A369" s="18"/>
       <c r="B369" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I369" s="1"/>
     </row>
-    <row r="370" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:9" ht="36">
       <c r="A370" s="18"/>
       <c r="B370" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="I370" s="1"/>
     </row>
-    <row r="371" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:9" ht="36">
       <c r="A371" s="18"/>
       <c r="B371" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="I371" s="1"/>
     </row>
-    <row r="372" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:9" ht="36">
       <c r="A372" s="18"/>
       <c r="B372" s="19" t="str">
         <f t="shared" si="35"/>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I372" s="1"/>
     </row>
-    <row r="373" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:9" ht="36">
       <c r="A373" s="18"/>
       <c r="B373" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="I373" s="1"/>
     </row>
-    <row r="374" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:9" ht="36">
       <c r="A374" s="18"/>
       <c r="B374" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13045,7 +13045,7 @@
       </c>
       <c r="I374" s="1"/>
     </row>
-    <row r="375" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:9" ht="36">
       <c r="A375" s="18"/>
       <c r="B375" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I375" s="1"/>
     </row>
-    <row r="376" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:9" ht="36">
       <c r="A376" s="18"/>
       <c r="B376" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="I376" s="1"/>
     </row>
-    <row r="377" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:9" ht="36">
       <c r="A377" s="18"/>
       <c r="B377" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="I377" s="1"/>
     </row>
-    <row r="378" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:9" ht="36">
       <c r="A378" s="18"/>
       <c r="B378" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="I378" s="1"/>
     </row>
-    <row r="379" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:9" ht="36">
       <c r="A379" s="18"/>
       <c r="B379" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="I379" s="1"/>
     </row>
-    <row r="380" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:9" ht="36">
       <c r="A380" s="18"/>
       <c r="B380" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="I380" s="1"/>
     </row>
-    <row r="381" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:9" ht="36">
       <c r="A381" s="18"/>
       <c r="B381" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I381" s="1"/>
     </row>
-    <row r="382" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:9" ht="36">
       <c r="A382" s="18"/>
       <c r="B382" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:9" ht="36">
       <c r="A383" s="18"/>
       <c r="B383" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="I383" s="1"/>
     </row>
-    <row r="384" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:9" ht="36">
       <c r="A384" s="18"/>
       <c r="B384" s="19" t="str">
         <f t="shared" si="35"/>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="I384" s="1"/>
     </row>
-    <row r="385" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:9" ht="36">
       <c r="A385" s="18"/>
       <c r="B385" s="19" t="str">
         <f t="shared" ref="B385:B448" si="42">IFERROR("@" &amp; MID(A385, SEARCH("{", A385) + 1, SEARCH(",", A385) - SEARCH("{", A385) - 1), "")</f>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I385" s="1"/>
     </row>
-    <row r="386" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:9" ht="36">
       <c r="A386" s="18"/>
       <c r="B386" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="I386" s="1"/>
     </row>
-    <row r="387" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:9" ht="36">
       <c r="A387" s="18"/>
       <c r="B387" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="I387" s="1"/>
     </row>
-    <row r="388" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:9" ht="36">
       <c r="A388" s="18"/>
       <c r="B388" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="I388" s="1"/>
     </row>
-    <row r="389" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:9" ht="36">
       <c r="A389" s="18"/>
       <c r="B389" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="I389" s="1"/>
     </row>
-    <row r="390" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:9" ht="36">
       <c r="A390" s="18"/>
       <c r="B390" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13557,7 +13557,7 @@
       </c>
       <c r="I390" s="1"/>
     </row>
-    <row r="391" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:9" ht="36">
       <c r="A391" s="18"/>
       <c r="B391" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="I391" s="1"/>
     </row>
-    <row r="392" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:9" ht="36">
       <c r="A392" s="18"/>
       <c r="B392" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="I392" s="1"/>
     </row>
-    <row r="393" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:9" ht="36">
       <c r="A393" s="18"/>
       <c r="B393" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="I393" s="1"/>
     </row>
-    <row r="394" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:9" ht="36">
       <c r="A394" s="18"/>
       <c r="B394" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I394" s="1"/>
     </row>
-    <row r="395" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:9" ht="36">
       <c r="A395" s="18"/>
       <c r="B395" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:9" ht="36">
       <c r="A396" s="18"/>
       <c r="B396" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="I396" s="1"/>
     </row>
-    <row r="397" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:9" ht="36">
       <c r="A397" s="18"/>
       <c r="B397" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="I397" s="1"/>
     </row>
-    <row r="398" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:9" ht="36">
       <c r="A398" s="18"/>
       <c r="B398" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="I398" s="1"/>
     </row>
-    <row r="399" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:9" ht="36">
       <c r="A399" s="18"/>
       <c r="B399" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="I399" s="1"/>
     </row>
-    <row r="400" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:9" ht="36">
       <c r="A400" s="18"/>
       <c r="B400" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="I400" s="1"/>
     </row>
-    <row r="401" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:9" ht="36">
       <c r="A401" s="18"/>
       <c r="B401" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="I401" s="1"/>
     </row>
-    <row r="402" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:9" ht="36">
       <c r="A402" s="18"/>
       <c r="B402" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:9" ht="36">
       <c r="A403" s="18"/>
       <c r="B403" s="19" t="str">
         <f t="shared" si="42"/>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="I403" s="1"/>
     </row>
-    <row r="404" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" ht="36">
       <c r="A404" s="18"/>
       <c r="B404" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="I404" s="1"/>
     </row>
-    <row r="405" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" ht="36">
       <c r="A405" s="18"/>
       <c r="B405" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="I405" s="1"/>
     </row>
-    <row r="406" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:9" ht="36">
       <c r="A406" s="18"/>
       <c r="B406" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="I406" s="1"/>
     </row>
-    <row r="407" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" ht="36">
       <c r="A407" s="18"/>
       <c r="B407" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="I407" s="1"/>
     </row>
-    <row r="408" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" ht="36">
       <c r="A408" s="18"/>
       <c r="B408" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="I408" s="1"/>
     </row>
-    <row r="409" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" ht="36">
       <c r="A409" s="18"/>
       <c r="B409" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="I409" s="1"/>
     </row>
-    <row r="410" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" ht="36">
       <c r="A410" s="18"/>
       <c r="B410" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14197,7 +14197,7 @@
       </c>
       <c r="I410" s="1"/>
     </row>
-    <row r="411" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" ht="36">
       <c r="A411" s="18"/>
       <c r="B411" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="I411" s="1"/>
     </row>
-    <row r="412" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" ht="36">
       <c r="A412" s="18"/>
       <c r="B412" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="I412" s="1"/>
     </row>
-    <row r="413" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" ht="36">
       <c r="A413" s="18"/>
       <c r="B413" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="I413" s="1"/>
     </row>
-    <row r="414" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" ht="36">
       <c r="A414" s="18"/>
       <c r="B414" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="I414" s="1"/>
     </row>
-    <row r="415" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" ht="36">
       <c r="A415" s="18"/>
       <c r="B415" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="I415" s="1"/>
     </row>
-    <row r="416" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" ht="36">
       <c r="A416" s="18"/>
       <c r="B416" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="I416" s="1"/>
     </row>
-    <row r="417" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" ht="36">
       <c r="A417" s="18"/>
       <c r="B417" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="I417" s="1"/>
     </row>
-    <row r="418" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" ht="36">
       <c r="A418" s="18"/>
       <c r="B418" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="I418" s="1"/>
     </row>
-    <row r="419" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" ht="36">
       <c r="A419" s="18"/>
       <c r="B419" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="I419" s="1"/>
     </row>
-    <row r="420" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" ht="36">
       <c r="A420" s="18"/>
       <c r="B420" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14517,7 +14517,7 @@
       </c>
       <c r="I420" s="1"/>
     </row>
-    <row r="421" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" ht="36">
       <c r="A421" s="18"/>
       <c r="B421" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="I421" s="1"/>
     </row>
-    <row r="422" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" ht="36">
       <c r="A422" s="18"/>
       <c r="B422" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="I422" s="1"/>
     </row>
-    <row r="423" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" ht="36">
       <c r="A423" s="18"/>
       <c r="B423" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="I423" s="1"/>
     </row>
-    <row r="424" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" ht="36">
       <c r="A424" s="18"/>
       <c r="B424" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14645,7 +14645,7 @@
       </c>
       <c r="I424" s="1"/>
     </row>
-    <row r="425" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" ht="36">
       <c r="A425" s="18"/>
       <c r="B425" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="I425" s="1"/>
     </row>
-    <row r="426" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" ht="36">
       <c r="A426" s="18"/>
       <c r="B426" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="I426" s="1"/>
     </row>
-    <row r="427" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" ht="36">
       <c r="A427" s="18"/>
       <c r="B427" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="I427" s="1"/>
     </row>
-    <row r="428" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" ht="36">
       <c r="A428" s="18"/>
       <c r="B428" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="I428" s="1"/>
     </row>
-    <row r="429" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" ht="36">
       <c r="A429" s="18"/>
       <c r="B429" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="I429" s="1"/>
     </row>
-    <row r="430" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" ht="36">
       <c r="A430" s="18"/>
       <c r="B430" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="I430" s="1"/>
     </row>
-    <row r="431" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" ht="36">
       <c r="A431" s="18"/>
       <c r="B431" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="I431" s="1"/>
     </row>
-    <row r="432" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" ht="36">
       <c r="A432" s="18"/>
       <c r="B432" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="I432" s="1"/>
     </row>
-    <row r="433" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:9" ht="36">
       <c r="A433" s="18"/>
       <c r="B433" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14933,7 +14933,7 @@
       </c>
       <c r="I433" s="1"/>
     </row>
-    <row r="434" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:9" ht="36">
       <c r="A434" s="18"/>
       <c r="B434" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="I434" s="1"/>
     </row>
-    <row r="435" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:9" ht="36">
       <c r="A435" s="18"/>
       <c r="B435" s="19" t="str">
         <f t="shared" si="42"/>
@@ -14997,7 +14997,7 @@
       </c>
       <c r="I435" s="1"/>
     </row>
-    <row r="436" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:9" ht="36">
       <c r="A436" s="18"/>
       <c r="B436" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I436" s="1"/>
     </row>
-    <row r="437" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:9" ht="36">
       <c r="A437" s="18"/>
       <c r="B437" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="I437" s="1"/>
     </row>
-    <row r="438" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:9" ht="36">
       <c r="A438" s="18"/>
       <c r="B438" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="I438" s="1"/>
     </row>
-    <row r="439" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:9" ht="36">
       <c r="A439" s="18"/>
       <c r="B439" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="I439" s="1"/>
     </row>
-    <row r="440" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:9" ht="36">
       <c r="A440" s="18"/>
       <c r="B440" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15157,7 +15157,7 @@
       </c>
       <c r="I440" s="1"/>
     </row>
-    <row r="441" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:9" ht="36">
       <c r="A441" s="18"/>
       <c r="B441" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I441" s="1"/>
     </row>
-    <row r="442" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:9" ht="36">
       <c r="A442" s="18"/>
       <c r="B442" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="I442" s="1"/>
     </row>
-    <row r="443" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:9" ht="36">
       <c r="A443" s="18"/>
       <c r="B443" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="I443" s="1"/>
     </row>
-    <row r="444" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:9" ht="36">
       <c r="A444" s="18"/>
       <c r="B444" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I444" s="1"/>
     </row>
-    <row r="445" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:9" ht="36">
       <c r="A445" s="18"/>
       <c r="B445" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15317,7 +15317,7 @@
       </c>
       <c r="I445" s="1"/>
     </row>
-    <row r="446" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:9" ht="36">
       <c r="A446" s="18"/>
       <c r="B446" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15349,7 +15349,7 @@
       </c>
       <c r="I446" s="1"/>
     </row>
-    <row r="447" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:9" ht="36">
       <c r="A447" s="18"/>
       <c r="B447" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="I447" s="1"/>
     </row>
-    <row r="448" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:9" ht="36">
       <c r="A448" s="18"/>
       <c r="B448" s="19" t="str">
         <f t="shared" si="42"/>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="I448" s="1"/>
     </row>
-    <row r="449" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:9" ht="36">
       <c r="A449" s="18"/>
       <c r="B449" s="19" t="str">
         <f t="shared" ref="B449:B507" si="49">IFERROR("@" &amp; MID(A449, SEARCH("{", A449) + 1, SEARCH(",", A449) - SEARCH("{", A449) - 1), "")</f>
@@ -15445,7 +15445,7 @@
       </c>
       <c r="I449" s="1"/>
     </row>
-    <row r="450" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" ht="36">
       <c r="A450" s="18"/>
       <c r="B450" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I450" s="1"/>
     </row>
-    <row r="451" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" ht="36">
       <c r="A451" s="18"/>
       <c r="B451" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15509,7 +15509,7 @@
       </c>
       <c r="I451" s="1"/>
     </row>
-    <row r="452" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:9" ht="36">
       <c r="A452" s="18"/>
       <c r="B452" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="I452" s="1"/>
     </row>
-    <row r="453" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:9" ht="36">
       <c r="A453" s="18"/>
       <c r="B453" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I453" s="1"/>
     </row>
-    <row r="454" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:9" ht="36">
       <c r="A454" s="18"/>
       <c r="B454" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="I454" s="1"/>
     </row>
-    <row r="455" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:9" ht="36">
       <c r="A455" s="18"/>
       <c r="B455" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="I455" s="1"/>
     </row>
-    <row r="456" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:9" ht="36">
       <c r="A456" s="18"/>
       <c r="B456" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I456" s="1"/>
     </row>
-    <row r="457" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:9" ht="36">
       <c r="A457" s="18"/>
       <c r="B457" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="I457" s="1"/>
     </row>
-    <row r="458" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:9" ht="36">
       <c r="A458" s="18"/>
       <c r="B458" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="I458" s="1"/>
     </row>
-    <row r="459" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:9" ht="36">
       <c r="A459" s="18"/>
       <c r="B459" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I459" s="1"/>
     </row>
-    <row r="460" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:9" ht="36">
       <c r="A460" s="18"/>
       <c r="B460" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="I460" s="1"/>
     </row>
-    <row r="461" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:9" ht="36">
       <c r="A461" s="18"/>
       <c r="B461" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="I461" s="1"/>
     </row>
-    <row r="462" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:9" ht="36">
       <c r="A462" s="18"/>
       <c r="B462" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="I462" s="1"/>
     </row>
-    <row r="463" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:9" ht="36">
       <c r="A463" s="18"/>
       <c r="B463" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="I463" s="1"/>
     </row>
-    <row r="464" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:9" ht="36">
       <c r="A464" s="18"/>
       <c r="B464" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15925,7 +15925,7 @@
       </c>
       <c r="I464" s="1"/>
     </row>
-    <row r="465" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:9" ht="36">
       <c r="A465" s="18"/>
       <c r="B465" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I465" s="1"/>
     </row>
-    <row r="466" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:9" ht="36">
       <c r="A466" s="18"/>
       <c r="B466" s="19" t="str">
         <f t="shared" si="49"/>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="I466" s="1"/>
     </row>
-    <row r="467" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:9" ht="36">
       <c r="A467" s="18"/>
       <c r="B467" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="I467" s="1"/>
     </row>
-    <row r="468" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:9" ht="36">
       <c r="A468" s="18"/>
       <c r="B468" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="I468" s="1"/>
     </row>
-    <row r="469" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:9" ht="36">
       <c r="A469" s="18"/>
       <c r="B469" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="I469" s="1"/>
     </row>
-    <row r="470" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:9" ht="36">
       <c r="A470" s="18"/>
       <c r="B470" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16117,7 +16117,7 @@
       </c>
       <c r="I470" s="1"/>
     </row>
-    <row r="471" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:9" ht="36">
       <c r="A471" s="18"/>
       <c r="B471" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="I471" s="1"/>
     </row>
-    <row r="472" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:9" ht="36">
       <c r="A472" s="18"/>
       <c r="B472" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16181,7 +16181,7 @@
       </c>
       <c r="I472" s="1"/>
     </row>
-    <row r="473" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:9" ht="36">
       <c r="A473" s="18"/>
       <c r="B473" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="I473" s="1"/>
     </row>
-    <row r="474" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:9" ht="36">
       <c r="A474" s="18"/>
       <c r="B474" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="I474" s="1"/>
     </row>
-    <row r="475" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:9" ht="36">
       <c r="A475" s="18"/>
       <c r="B475" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="I475" s="1"/>
     </row>
-    <row r="476" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:9" ht="36">
       <c r="A476" s="18"/>
       <c r="B476" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="I476" s="1"/>
     </row>
-    <row r="477" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:9" ht="36">
       <c r="A477" s="18"/>
       <c r="B477" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16341,7 +16341,7 @@
       </c>
       <c r="I477" s="1"/>
     </row>
-    <row r="478" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:9" ht="36">
       <c r="A478" s="18"/>
       <c r="B478" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="I478" s="1"/>
     </row>
-    <row r="479" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:9" ht="36">
       <c r="A479" s="18"/>
       <c r="B479" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16405,7 +16405,7 @@
       </c>
       <c r="I479" s="1"/>
     </row>
-    <row r="480" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:9" ht="36">
       <c r="A480" s="18"/>
       <c r="B480" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="I480" s="1"/>
     </row>
-    <row r="481" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:9" ht="36">
       <c r="A481" s="18"/>
       <c r="B481" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="I481" s="1"/>
     </row>
-    <row r="482" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:9" ht="36">
       <c r="A482" s="18"/>
       <c r="B482" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="I482" s="1"/>
     </row>
-    <row r="483" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:9" ht="36">
       <c r="A483" s="18"/>
       <c r="B483" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:9" ht="36">
       <c r="A484" s="18"/>
       <c r="B484" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:9" ht="36">
       <c r="A485" s="18"/>
       <c r="B485" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16597,7 +16597,7 @@
       </c>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:9" ht="36">
       <c r="A486" s="18"/>
       <c r="B486" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:9" ht="36">
       <c r="A487" s="18"/>
       <c r="B487" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:9" ht="36">
       <c r="A488" s="18"/>
       <c r="B488" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:9" ht="36">
       <c r="A489" s="18"/>
       <c r="B489" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:9" ht="36">
       <c r="A490" s="18"/>
       <c r="B490" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:9" ht="36">
       <c r="A491" s="18"/>
       <c r="B491" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16789,7 +16789,7 @@
       </c>
       <c r="I491" s="1"/>
     </row>
-    <row r="492" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:9" ht="36">
       <c r="A492" s="18"/>
       <c r="B492" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I492" s="1"/>
     </row>
-    <row r="493" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:9" ht="36">
       <c r="A493" s="18"/>
       <c r="B493" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="I493" s="1"/>
     </row>
-    <row r="494" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:9" ht="36">
       <c r="A494" s="18"/>
       <c r="B494" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="I494" s="1"/>
     </row>
-    <row r="495" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:9" ht="36">
       <c r="A495" s="18"/>
       <c r="B495" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I495" s="1"/>
     </row>
-    <row r="496" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:9" ht="36">
       <c r="A496" s="18"/>
       <c r="B496" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="I496" s="1"/>
     </row>
-    <row r="497" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:9" ht="36">
       <c r="A497" s="18"/>
       <c r="B497" s="19" t="str">
         <f t="shared" si="49"/>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="I497" s="1"/>
     </row>
-    <row r="498" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:9" ht="36">
       <c r="A498" s="18"/>
       <c r="B498" s="19" t="str">
         <f t="shared" si="49"/>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I498" s="1"/>
     </row>
-    <row r="499" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:9" ht="36">
       <c r="A499" s="18"/>
       <c r="B499" s="19" t="str">
         <f t="shared" si="49"/>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="I499" s="1"/>
     </row>
-    <row r="500" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:9" ht="36">
       <c r="B500" s="19" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17067,7 +17067,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:9" ht="36">
       <c r="B501" s="19" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17089,7 +17089,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:9" ht="36">
       <c r="B502" s="19" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17111,7 +17111,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:9" ht="36">
       <c r="B503" s="19" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17133,7 +17133,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:9" ht="36">
       <c r="B504" s="19" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17155,7 +17155,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:9" ht="36">
       <c r="B505" s="19" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17177,7 +17177,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:9" ht="36">
       <c r="B506" s="19" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17199,7 +17199,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:9" ht="36">
       <c r="B507" s="19" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17257,11 +17257,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="65.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="16" customWidth="1"/>
@@ -17281,7 +17281,7 @@
     <col min="18" max="18" width="126.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" s="11" customFormat="1" ht="36">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -17337,9 +17337,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="150" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="150">
       <c r="A2" s="26" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B2" s="15" t="str">
         <f>IFERROR("@" &amp; MID(A2, SEARCH("{", A2) + 1, SEARCH(",", A2) - SEARCH("{", A2) - 1), "")</f>
@@ -17371,7 +17371,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="36">
       <c r="A3" s="26"/>
       <c r="B3" s="15" t="str">
         <f>IFERROR("@" &amp; MID(A3, SEARCH("{", A3) + 1, SEARCH(",", A3) - SEARCH("{", A3) - 1), "")</f>
@@ -17403,7 +17403,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" ht="36">
       <c r="A4" s="26"/>
       <c r="B4" s="15" t="str">
         <f t="shared" ref="B4:B65" si="3">IFERROR("@" &amp; MID(A4, SEARCH("{", A4) + 1, SEARCH(",", A4) - SEARCH("{", A4) - 1), "")</f>
@@ -17435,7 +17435,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" ht="36">
       <c r="A5" s="26"/>
       <c r="B5" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17467,7 +17467,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" ht="36">
       <c r="A6" s="26"/>
       <c r="B6" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17499,7 +17499,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" ht="36">
       <c r="A7" s="26"/>
       <c r="B7" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17531,7 +17531,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" ht="36">
       <c r="A8" s="26"/>
       <c r="B8" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17563,7 +17563,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" ht="36">
       <c r="A9" s="26"/>
       <c r="B9" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17595,7 +17595,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" ht="36">
       <c r="A10" s="26"/>
       <c r="B10" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17627,7 +17627,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" ht="36">
       <c r="A11" s="26"/>
       <c r="B11" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" ht="36">
       <c r="A12" s="26"/>
       <c r="B12" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17691,7 +17691,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" ht="36">
       <c r="A13" s="26"/>
       <c r="B13" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17723,7 +17723,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" ht="36">
       <c r="A14" s="26"/>
       <c r="B14" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" ht="36">
       <c r="A15" s="26"/>
       <c r="B15" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" ht="36">
       <c r="A16" s="26"/>
       <c r="B16" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="36">
       <c r="A17" s="26"/>
       <c r="B17" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="36">
       <c r="A18" s="26"/>
       <c r="B18" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17883,7 +17883,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="36">
       <c r="A19" s="26"/>
       <c r="B19" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17915,7 +17915,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="36">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17947,7 +17947,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="36">
       <c r="A21" s="26"/>
       <c r="B21" s="15" t="str">
         <f t="shared" si="3"/>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="36">
       <c r="A22" s="26"/>
       <c r="B22" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="36">
       <c r="A23" s="26"/>
       <c r="B23" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="36">
       <c r="A24" s="26"/>
       <c r="B24" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18075,7 +18075,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="36">
       <c r="A25" s="26"/>
       <c r="B25" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18107,7 +18107,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="36">
       <c r="A26" s="26"/>
       <c r="B26" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" ht="36">
       <c r="A27" s="26"/>
       <c r="B27" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18171,7 +18171,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" ht="36">
       <c r="A28" s="26"/>
       <c r="B28" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18203,7 +18203,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" ht="36">
       <c r="A29" s="26"/>
       <c r="B29" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" ht="36">
       <c r="A30" s="26"/>
       <c r="B30" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18267,7 +18267,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" ht="36">
       <c r="A31" s="26"/>
       <c r="B31" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18299,7 +18299,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" ht="36">
       <c r="A32" s="26"/>
       <c r="B32" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18331,7 +18331,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" ht="36">
       <c r="A33" s="26"/>
       <c r="B33" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" ht="36">
       <c r="A34" s="26"/>
       <c r="B34" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18395,7 +18395,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" ht="36">
       <c r="A35" s="26"/>
       <c r="B35" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18427,7 +18427,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" ht="36">
       <c r="A36" s="26"/>
       <c r="B36" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18459,7 +18459,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" ht="36">
       <c r="A37" s="26"/>
       <c r="B37" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="36">
       <c r="A38" s="26"/>
       <c r="B38" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18523,7 +18523,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" ht="36">
       <c r="A39" s="26"/>
       <c r="B39" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18555,7 +18555,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" ht="36">
       <c r="A40" s="26"/>
       <c r="B40" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18587,7 +18587,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" ht="36">
       <c r="A41" s="26"/>
       <c r="B41" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" ht="36">
       <c r="A42" s="26"/>
       <c r="B42" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18651,7 +18651,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" ht="36">
       <c r="A43" s="26"/>
       <c r="B43" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18683,7 +18683,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" ht="36">
       <c r="A44" s="26"/>
       <c r="B44" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18715,7 +18715,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" ht="36">
       <c r="A45" s="26"/>
       <c r="B45" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18747,7 +18747,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" ht="36">
       <c r="A46" s="26"/>
       <c r="B46" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18779,7 +18779,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" ht="36">
       <c r="A47" s="26"/>
       <c r="B47" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" ht="36">
       <c r="A48" s="26"/>
       <c r="B48" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" ht="36">
       <c r="A49" s="26"/>
       <c r="B49" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18875,7 +18875,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" ht="36">
       <c r="A50" s="26"/>
       <c r="B50" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" ht="36">
       <c r="A51" s="26"/>
       <c r="B51" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18939,7 +18939,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" ht="36">
       <c r="A52" s="26"/>
       <c r="B52" s="15" t="str">
         <f t="shared" si="3"/>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" ht="36">
       <c r="A53" s="26"/>
       <c r="B53" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19003,7 +19003,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" ht="36">
       <c r="A54" s="26"/>
       <c r="B54" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" ht="36">
       <c r="A55" s="26"/>
       <c r="B55" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19067,7 +19067,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" ht="36">
       <c r="A56" s="26"/>
       <c r="B56" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19099,7 +19099,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" ht="36">
       <c r="A57" s="26"/>
       <c r="B57" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19131,7 +19131,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" ht="36">
       <c r="A58" s="26"/>
       <c r="B58" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19163,7 +19163,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" ht="36">
       <c r="A59" s="26"/>
       <c r="B59" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" ht="36">
       <c r="A60" s="26"/>
       <c r="B60" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19227,7 +19227,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" ht="36">
       <c r="A61" s="26"/>
       <c r="B61" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19259,7 +19259,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" ht="36">
       <c r="A62" s="26"/>
       <c r="B62" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19291,7 +19291,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" ht="36">
       <c r="A63" s="26"/>
       <c r="B63" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19323,7 +19323,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" ht="36">
       <c r="A64" s="26"/>
       <c r="B64" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" ht="36">
       <c r="A65" s="26"/>
       <c r="B65" s="15" t="str">
         <f t="shared" si="3"/>
@@ -19387,7 +19387,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" ht="36">
       <c r="A66" s="26"/>
       <c r="B66" s="15" t="str">
         <f t="shared" ref="B66:B129" si="9">IFERROR("@" &amp; MID(A66, SEARCH("{", A66) + 1, SEARCH(",", A66) - SEARCH("{", A66) - 1), "")</f>
@@ -19419,7 +19419,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" ht="36">
       <c r="A67" s="26"/>
       <c r="B67" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19451,7 +19451,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" ht="36">
       <c r="A68" s="26"/>
       <c r="B68" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19483,7 +19483,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" ht="36">
       <c r="A69" s="26"/>
       <c r="B69" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19515,7 +19515,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" ht="36">
       <c r="A70" s="26"/>
       <c r="B70" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19547,7 +19547,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" ht="36">
       <c r="A71" s="26"/>
       <c r="B71" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19579,7 +19579,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" ht="36">
       <c r="A72" s="26"/>
       <c r="B72" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" ht="36">
       <c r="A73" s="26"/>
       <c r="B73" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" ht="36">
       <c r="A74" s="26"/>
       <c r="B74" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" ht="36">
       <c r="A75" s="26"/>
       <c r="B75" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" ht="36">
       <c r="A76" s="26"/>
       <c r="B76" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19739,7 +19739,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" ht="36">
       <c r="A77" s="26"/>
       <c r="B77" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19771,7 +19771,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" ht="36">
       <c r="A78" s="26"/>
       <c r="B78" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" ht="36">
       <c r="A79" s="26"/>
       <c r="B79" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" ht="36">
       <c r="A80" s="26"/>
       <c r="B80" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19867,7 +19867,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" ht="36">
       <c r="A81" s="26"/>
       <c r="B81" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19899,7 +19899,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" ht="36">
       <c r="A82" s="26"/>
       <c r="B82" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19931,7 +19931,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" ht="36">
       <c r="A83" s="26"/>
       <c r="B83" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19963,7 +19963,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" ht="36">
       <c r="A84" s="26"/>
       <c r="B84" s="15" t="str">
         <f t="shared" si="9"/>
@@ -19995,7 +19995,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" ht="36">
       <c r="A85" s="26"/>
       <c r="B85" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" ht="36">
       <c r="A86" s="26"/>
       <c r="B86" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20059,7 +20059,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" ht="36">
       <c r="A87" s="26"/>
       <c r="B87" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20091,7 +20091,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" ht="36">
       <c r="A88" s="26"/>
       <c r="B88" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20123,7 +20123,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" ht="36">
       <c r="A89" s="26"/>
       <c r="B89" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" ht="36">
       <c r="A90" s="26"/>
       <c r="B90" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20187,7 +20187,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" ht="36">
       <c r="A91" s="26"/>
       <c r="B91" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20219,7 +20219,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" ht="36">
       <c r="A92" s="26"/>
       <c r="B92" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20251,7 +20251,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" ht="36">
       <c r="A93" s="26"/>
       <c r="B93" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" ht="36">
       <c r="A94" s="26"/>
       <c r="B94" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20315,7 +20315,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" ht="36">
       <c r="A95" s="26"/>
       <c r="B95" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20347,7 +20347,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" ht="36">
       <c r="A96" s="26"/>
       <c r="B96" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" ht="36">
       <c r="A97" s="26"/>
       <c r="B97" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" ht="36">
       <c r="A98" s="26"/>
       <c r="B98" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" ht="36">
       <c r="A99" s="26"/>
       <c r="B99" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" ht="36">
       <c r="A100" s="26"/>
       <c r="B100" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" ht="36">
       <c r="A101" s="26"/>
       <c r="B101" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20539,7 +20539,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" ht="36">
       <c r="A102" s="26"/>
       <c r="B102" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20571,7 +20571,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" ht="36">
       <c r="A103" s="26"/>
       <c r="B103" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20603,7 +20603,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" ht="36">
       <c r="A104" s="26"/>
       <c r="B104" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" ht="36">
       <c r="A105" s="26"/>
       <c r="B105" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20667,7 +20667,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" ht="36">
       <c r="A106" s="26"/>
       <c r="B106" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" ht="36">
       <c r="A107" s="26"/>
       <c r="B107" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" ht="36">
       <c r="A108" s="26"/>
       <c r="B108" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20763,7 +20763,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" ht="36">
       <c r="A109" s="26"/>
       <c r="B109" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" ht="36">
       <c r="A110" s="26"/>
       <c r="B110" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20827,7 +20827,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" ht="36">
       <c r="A111" s="26"/>
       <c r="B111" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20859,7 +20859,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" ht="36">
       <c r="A112" s="26"/>
       <c r="B112" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" ht="36">
       <c r="A113" s="26"/>
       <c r="B113" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20923,7 +20923,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" ht="36">
       <c r="A114" s="26"/>
       <c r="B114" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20955,7 +20955,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" ht="36">
       <c r="A115" s="26"/>
       <c r="B115" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20987,7 +20987,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" ht="36">
       <c r="A116" s="26"/>
       <c r="B116" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21019,7 +21019,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" ht="36">
       <c r="A117" s="26"/>
       <c r="B117" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" ht="36">
       <c r="A118" s="26"/>
       <c r="B118" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21083,7 +21083,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" ht="36">
       <c r="A119" s="26"/>
       <c r="B119" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" ht="36">
       <c r="A120" s="26"/>
       <c r="B120" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21147,7 +21147,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" ht="36">
       <c r="A121" s="26"/>
       <c r="B121" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21179,7 +21179,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" ht="36">
       <c r="A122" s="26"/>
       <c r="B122" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21211,7 +21211,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" ht="36">
       <c r="A123" s="26"/>
       <c r="B123" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21243,7 +21243,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" ht="36">
       <c r="A124" s="26"/>
       <c r="B124" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21275,7 +21275,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" ht="36">
       <c r="A125" s="26"/>
       <c r="B125" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" ht="36">
       <c r="A126" s="26"/>
       <c r="B126" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21339,7 +21339,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" ht="36">
       <c r="A127" s="26"/>
       <c r="B127" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21371,7 +21371,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" ht="36">
       <c r="A128" s="26"/>
       <c r="B128" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" ht="36">
       <c r="A129" s="26"/>
       <c r="B129" s="15" t="str">
         <f t="shared" si="9"/>
@@ -21435,7 +21435,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" ht="36">
       <c r="A130" s="26"/>
       <c r="B130" s="15" t="str">
         <f t="shared" ref="B130:B193" si="16">IFERROR("@" &amp; MID(A130, SEARCH("{", A130) + 1, SEARCH(",", A130) - SEARCH("{", A130) - 1), "")</f>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" ht="36">
       <c r="A131" s="26"/>
       <c r="B131" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21499,7 +21499,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" ht="36">
       <c r="A132" s="26"/>
       <c r="B132" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21531,7 +21531,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" ht="36">
       <c r="A133" s="26"/>
       <c r="B133" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21563,7 +21563,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" ht="36">
       <c r="A134" s="26"/>
       <c r="B134" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21595,7 +21595,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" ht="36">
       <c r="A135" s="26"/>
       <c r="B135" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21627,7 +21627,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" ht="36">
       <c r="A136" s="26"/>
       <c r="B136" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21659,7 +21659,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" ht="36">
       <c r="A137" s="26"/>
       <c r="B137" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" ht="36">
       <c r="A138" s="26"/>
       <c r="B138" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21723,7 +21723,7 @@
       </c>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" ht="36">
       <c r="A139" s="26"/>
       <c r="B139" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21755,7 +21755,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" ht="36">
       <c r="A140" s="26"/>
       <c r="B140" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21787,7 +21787,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" ht="36">
       <c r="A141" s="26"/>
       <c r="B141" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21819,7 +21819,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" ht="36">
       <c r="A142" s="26"/>
       <c r="B142" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21851,7 +21851,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" ht="36">
       <c r="A143" s="26"/>
       <c r="B143" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21883,7 +21883,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" ht="36">
       <c r="A144" s="26"/>
       <c r="B144" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21915,7 +21915,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" ht="36">
       <c r="A145" s="26"/>
       <c r="B145" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21947,7 +21947,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" ht="36">
       <c r="A146" s="26"/>
       <c r="B146" s="15" t="str">
         <f t="shared" si="16"/>
@@ -21979,7 +21979,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" ht="36">
       <c r="A147" s="26"/>
       <c r="B147" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22011,7 +22011,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" ht="36">
       <c r="A148" s="26"/>
       <c r="B148" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22043,7 +22043,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" ht="36">
       <c r="A149" s="26"/>
       <c r="B149" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22075,7 +22075,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" ht="36">
       <c r="A150" s="26"/>
       <c r="B150" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22107,7 +22107,7 @@
       </c>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" ht="36">
       <c r="A151" s="26"/>
       <c r="B151" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22139,7 +22139,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" ht="36">
       <c r="A152" s="26"/>
       <c r="B152" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22171,7 +22171,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" ht="36">
       <c r="A153" s="26"/>
       <c r="B153" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22203,7 +22203,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" ht="36">
       <c r="A154" s="26"/>
       <c r="B154" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22235,7 +22235,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" ht="36">
       <c r="A155" s="26"/>
       <c r="B155" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22267,7 +22267,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" ht="36">
       <c r="A156" s="26"/>
       <c r="B156" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22299,7 +22299,7 @@
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" ht="36">
       <c r="A157" s="26"/>
       <c r="B157" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22331,7 +22331,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" ht="36">
       <c r="A158" s="26"/>
       <c r="B158" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" ht="36">
       <c r="A159" s="26"/>
       <c r="B159" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" ht="36">
       <c r="A160" s="26"/>
       <c r="B160" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22427,7 +22427,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" ht="36">
       <c r="A161" s="26"/>
       <c r="B161" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" ht="36">
       <c r="A162" s="26"/>
       <c r="B162" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22491,7 +22491,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" ht="36">
       <c r="A163" s="26"/>
       <c r="B163" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22523,7 +22523,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" ht="36">
       <c r="A164" s="26"/>
       <c r="B164" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22555,7 +22555,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" ht="36">
       <c r="A165" s="26"/>
       <c r="B165" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22587,7 +22587,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" ht="36">
       <c r="A166" s="26"/>
       <c r="B166" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22619,7 +22619,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" ht="36">
       <c r="A167" s="26"/>
       <c r="B167" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22651,7 +22651,7 @@
       </c>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" ht="36">
       <c r="A168" s="26"/>
       <c r="B168" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22683,7 +22683,7 @@
       </c>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" ht="36">
       <c r="A169" s="26"/>
       <c r="B169" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22715,7 +22715,7 @@
       </c>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" ht="36">
       <c r="A170" s="26"/>
       <c r="B170" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22747,7 +22747,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" ht="36">
       <c r="A171" s="26"/>
       <c r="B171" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22779,7 +22779,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" ht="36">
       <c r="A172" s="26"/>
       <c r="B172" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22811,7 +22811,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" ht="36">
       <c r="A173" s="26"/>
       <c r="B173" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22843,7 +22843,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" ht="36">
       <c r="A174" s="26"/>
       <c r="B174" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22875,7 +22875,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" ht="36">
       <c r="A175" s="26"/>
       <c r="B175" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22907,7 +22907,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" ht="36">
       <c r="A176" s="26"/>
       <c r="B176" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22939,7 +22939,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" ht="36">
       <c r="A177" s="26"/>
       <c r="B177" s="15" t="str">
         <f t="shared" si="16"/>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" ht="36">
       <c r="A178" s="26"/>
       <c r="B178" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" ht="36">
       <c r="A179" s="26"/>
       <c r="B179" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23035,7 +23035,7 @@
       </c>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" ht="36">
       <c r="A180" s="26"/>
       <c r="B180" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23067,7 +23067,7 @@
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" ht="36">
       <c r="A181" s="26"/>
       <c r="B181" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23099,7 +23099,7 @@
       </c>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" ht="36">
       <c r="A182" s="26"/>
       <c r="B182" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" ht="36">
       <c r="A183" s="26"/>
       <c r="B183" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23163,7 +23163,7 @@
       </c>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" ht="36">
       <c r="A184" s="26"/>
       <c r="B184" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" ht="36">
       <c r="A185" s="26"/>
       <c r="B185" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23227,7 +23227,7 @@
       </c>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" ht="36">
       <c r="A186" s="26"/>
       <c r="B186" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" ht="36">
       <c r="A187" s="26"/>
       <c r="B187" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23291,7 +23291,7 @@
       </c>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" ht="36">
       <c r="A188" s="26"/>
       <c r="B188" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23323,7 +23323,7 @@
       </c>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" ht="36">
       <c r="A189" s="26"/>
       <c r="B189" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23355,7 +23355,7 @@
       </c>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" ht="36">
       <c r="A190" s="26"/>
       <c r="B190" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" ht="36">
       <c r="A191" s="26"/>
       <c r="B191" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23419,7 +23419,7 @@
       </c>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" ht="36">
       <c r="A192" s="26"/>
       <c r="B192" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23451,7 +23451,7 @@
       </c>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" ht="36">
       <c r="A193" s="26"/>
       <c r="B193" s="15" t="str">
         <f t="shared" si="16"/>
@@ -23483,7 +23483,7 @@
       </c>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" ht="36">
       <c r="A194" s="26"/>
       <c r="B194" s="15" t="str">
         <f t="shared" ref="B194:B257" si="23">IFERROR("@" &amp; MID(A194, SEARCH("{", A194) + 1, SEARCH(",", A194) - SEARCH("{", A194) - 1), "")</f>
@@ -23515,7 +23515,7 @@
       </c>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" ht="36">
       <c r="A195" s="26"/>
       <c r="B195" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23547,7 +23547,7 @@
       </c>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" ht="36">
       <c r="A196" s="26"/>
       <c r="B196" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23579,7 +23579,7 @@
       </c>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" ht="36">
       <c r="A197" s="26"/>
       <c r="B197" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23611,7 +23611,7 @@
       </c>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" ht="36">
       <c r="A198" s="26"/>
       <c r="B198" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23643,7 +23643,7 @@
       </c>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" ht="36">
       <c r="A199" s="26"/>
       <c r="B199" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23675,7 +23675,7 @@
       </c>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" ht="36">
       <c r="A200" s="26"/>
       <c r="B200" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23707,7 +23707,7 @@
       </c>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" ht="36">
       <c r="A201" s="26"/>
       <c r="B201" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23739,7 +23739,7 @@
       </c>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" ht="36">
       <c r="A202" s="26"/>
       <c r="B202" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23771,7 +23771,7 @@
       </c>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" ht="36">
       <c r="A203" s="26"/>
       <c r="B203" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23803,7 +23803,7 @@
       </c>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" ht="36">
       <c r="A204" s="26"/>
       <c r="B204" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23835,7 +23835,7 @@
       </c>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" ht="36">
       <c r="A205" s="26"/>
       <c r="B205" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23867,7 +23867,7 @@
       </c>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" ht="36">
       <c r="A206" s="26"/>
       <c r="B206" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23899,7 +23899,7 @@
       </c>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" ht="36">
       <c r="A207" s="26"/>
       <c r="B207" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23931,7 +23931,7 @@
       </c>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" ht="36">
       <c r="A208" s="26"/>
       <c r="B208" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23963,7 +23963,7 @@
       </c>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" ht="36">
       <c r="A209" s="26"/>
       <c r="B209" s="15" t="str">
         <f t="shared" si="23"/>
@@ -23995,7 +23995,7 @@
       </c>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" ht="36">
       <c r="A210" s="26"/>
       <c r="B210" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24027,7 +24027,7 @@
       </c>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" ht="36">
       <c r="A211" s="26"/>
       <c r="B211" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24059,7 +24059,7 @@
       </c>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" ht="36">
       <c r="A212" s="26"/>
       <c r="B212" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24091,7 +24091,7 @@
       </c>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" ht="36">
       <c r="A213" s="26"/>
       <c r="B213" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24123,7 +24123,7 @@
       </c>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" ht="36">
       <c r="A214" s="26"/>
       <c r="B214" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24155,7 +24155,7 @@
       </c>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" ht="36">
       <c r="A215" s="26"/>
       <c r="B215" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24187,7 +24187,7 @@
       </c>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" ht="36">
       <c r="A216" s="26"/>
       <c r="B216" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24219,7 +24219,7 @@
       </c>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" ht="36">
       <c r="A217" s="26"/>
       <c r="B217" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24251,7 +24251,7 @@
       </c>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" ht="36">
       <c r="A218" s="26"/>
       <c r="B218" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24283,7 +24283,7 @@
       </c>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" ht="36">
       <c r="A219" s="26"/>
       <c r="B219" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24315,7 +24315,7 @@
       </c>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" ht="36">
       <c r="A220" s="26"/>
       <c r="B220" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24347,7 +24347,7 @@
       </c>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" ht="36">
       <c r="A221" s="26"/>
       <c r="B221" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24379,7 +24379,7 @@
       </c>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" ht="36">
       <c r="A222" s="26"/>
       <c r="B222" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24411,7 +24411,7 @@
       </c>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" ht="36">
       <c r="A223" s="26"/>
       <c r="B223" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" ht="36">
       <c r="A224" s="26"/>
       <c r="B224" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" ht="36">
       <c r="A225" s="26"/>
       <c r="B225" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24507,7 +24507,7 @@
       </c>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" ht="36">
       <c r="A226" s="26"/>
       <c r="B226" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24539,7 +24539,7 @@
       </c>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" ht="36">
       <c r="A227" s="26"/>
       <c r="B227" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24571,7 +24571,7 @@
       </c>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" ht="36">
       <c r="A228" s="26"/>
       <c r="B228" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24603,7 +24603,7 @@
       </c>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" ht="36">
       <c r="A229" s="26"/>
       <c r="B229" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24635,7 +24635,7 @@
       </c>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" ht="36">
       <c r="A230" s="26"/>
       <c r="B230" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24667,7 +24667,7 @@
       </c>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" ht="36">
       <c r="A231" s="26"/>
       <c r="B231" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24699,7 +24699,7 @@
       </c>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" ht="36">
       <c r="A232" s="26"/>
       <c r="B232" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24731,7 +24731,7 @@
       </c>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" ht="36">
       <c r="A233" s="26"/>
       <c r="B233" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" ht="36">
       <c r="A234" s="26"/>
       <c r="B234" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24795,7 +24795,7 @@
       </c>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" ht="36">
       <c r="A235" s="26"/>
       <c r="B235" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24827,7 +24827,7 @@
       </c>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" ht="36">
       <c r="A236" s="26"/>
       <c r="B236" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24859,7 +24859,7 @@
       </c>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" ht="36">
       <c r="A237" s="26"/>
       <c r="B237" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24891,7 +24891,7 @@
       </c>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" ht="36">
       <c r="A238" s="26"/>
       <c r="B238" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24923,7 +24923,7 @@
       </c>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" ht="36">
       <c r="A239" s="26"/>
       <c r="B239" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24955,7 +24955,7 @@
       </c>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" ht="36">
       <c r="A240" s="26"/>
       <c r="B240" s="15" t="str">
         <f t="shared" si="23"/>
@@ -24987,7 +24987,7 @@
       </c>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" ht="36">
       <c r="A241" s="26"/>
       <c r="B241" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25019,7 +25019,7 @@
       </c>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" ht="36">
       <c r="A242" s="26"/>
       <c r="B242" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25051,7 +25051,7 @@
       </c>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" ht="36">
       <c r="A243" s="26"/>
       <c r="B243" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25083,7 +25083,7 @@
       </c>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" ht="36">
       <c r="A244" s="26"/>
       <c r="B244" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25115,7 +25115,7 @@
       </c>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" ht="36">
       <c r="A245" s="26"/>
       <c r="B245" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25147,7 +25147,7 @@
       </c>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" ht="36">
       <c r="A246" s="26"/>
       <c r="B246" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25179,7 +25179,7 @@
       </c>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" ht="36">
       <c r="A247" s="26"/>
       <c r="B247" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" ht="36">
       <c r="A248" s="26"/>
       <c r="B248" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25243,7 +25243,7 @@
       </c>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" ht="36">
       <c r="A249" s="26"/>
       <c r="B249" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25275,7 +25275,7 @@
       </c>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" ht="36">
       <c r="A250" s="26"/>
       <c r="B250" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" ht="36">
       <c r="A251" s="26"/>
       <c r="B251" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25339,7 +25339,7 @@
       </c>
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:9" ht="36">
       <c r="A252" s="26"/>
       <c r="B252" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25371,7 +25371,7 @@
       </c>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" ht="36">
       <c r="A253" s="26"/>
       <c r="B253" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25403,7 +25403,7 @@
       </c>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" ht="36">
       <c r="A254" s="26"/>
       <c r="B254" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25435,7 +25435,7 @@
       </c>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" ht="36">
       <c r="A255" s="26"/>
       <c r="B255" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25467,7 +25467,7 @@
       </c>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" ht="36">
       <c r="A256" s="26"/>
       <c r="B256" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25499,7 +25499,7 @@
       </c>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" ht="36">
       <c r="A257" s="26"/>
       <c r="B257" s="15" t="str">
         <f t="shared" si="23"/>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" ht="36">
       <c r="A258" s="26"/>
       <c r="B258" s="15" t="str">
         <f t="shared" ref="B258:B321" si="30">IFERROR("@" &amp; MID(A258, SEARCH("{", A258) + 1, SEARCH(",", A258) - SEARCH("{", A258) - 1), "")</f>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" ht="36">
       <c r="A259" s="26"/>
       <c r="B259" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25595,7 +25595,7 @@
       </c>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" ht="36">
       <c r="A260" s="26"/>
       <c r="B260" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25627,7 +25627,7 @@
       </c>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" ht="36">
       <c r="A261" s="26"/>
       <c r="B261" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25659,7 +25659,7 @@
       </c>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" ht="36">
       <c r="A262" s="26"/>
       <c r="B262" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:9" ht="36">
       <c r="A263" s="26"/>
       <c r="B263" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25723,7 +25723,7 @@
       </c>
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" ht="36">
       <c r="A264" s="26"/>
       <c r="B264" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25755,7 +25755,7 @@
       </c>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" ht="36">
       <c r="A265" s="26"/>
       <c r="B265" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25787,7 +25787,7 @@
       </c>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" ht="36">
       <c r="A266" s="26"/>
       <c r="B266" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25819,7 +25819,7 @@
       </c>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" ht="36">
       <c r="A267" s="26"/>
       <c r="B267" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25851,7 +25851,7 @@
       </c>
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" ht="36">
       <c r="A268" s="26"/>
       <c r="B268" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25883,7 +25883,7 @@
       </c>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" ht="36">
       <c r="A269" s="26"/>
       <c r="B269" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25915,7 +25915,7 @@
       </c>
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" ht="36">
       <c r="A270" s="26"/>
       <c r="B270" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25947,7 +25947,7 @@
       </c>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" ht="36">
       <c r="A271" s="26"/>
       <c r="B271" s="15" t="str">
         <f t="shared" si="30"/>
@@ -25979,7 +25979,7 @@
       </c>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" ht="36">
       <c r="A272" s="26"/>
       <c r="B272" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26011,7 +26011,7 @@
       </c>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" ht="36">
       <c r="A273" s="26"/>
       <c r="B273" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:9" ht="36">
       <c r="A274" s="26"/>
       <c r="B274" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26075,7 +26075,7 @@
       </c>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:9" ht="36">
       <c r="A275" s="26"/>
       <c r="B275" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26107,7 +26107,7 @@
       </c>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:9" ht="36">
       <c r="A276" s="26"/>
       <c r="B276" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26139,7 +26139,7 @@
       </c>
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:9" ht="36">
       <c r="A277" s="26"/>
       <c r="B277" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26171,7 +26171,7 @@
       </c>
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:9" ht="36">
       <c r="A278" s="26"/>
       <c r="B278" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26203,7 +26203,7 @@
       </c>
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:9" ht="36">
       <c r="A279" s="26"/>
       <c r="B279" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26235,7 +26235,7 @@
       </c>
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:9" ht="36">
       <c r="A280" s="26"/>
       <c r="B280" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26267,7 +26267,7 @@
       </c>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:9" ht="36">
       <c r="A281" s="26"/>
       <c r="B281" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26299,7 +26299,7 @@
       </c>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:9" ht="36">
       <c r="A282" s="26"/>
       <c r="B282" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26331,7 +26331,7 @@
       </c>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:9" ht="36">
       <c r="A283" s="26"/>
       <c r="B283" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26363,7 +26363,7 @@
       </c>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:9" ht="36">
       <c r="A284" s="26"/>
       <c r="B284" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26395,7 +26395,7 @@
       </c>
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:9" ht="36">
       <c r="A285" s="26"/>
       <c r="B285" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26427,7 +26427,7 @@
       </c>
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:9" ht="36">
       <c r="A286" s="26"/>
       <c r="B286" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26459,7 +26459,7 @@
       </c>
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:9" ht="36">
       <c r="A287" s="26"/>
       <c r="B287" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26491,7 +26491,7 @@
       </c>
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:9" ht="36">
       <c r="A288" s="26"/>
       <c r="B288" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26523,7 +26523,7 @@
       </c>
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" ht="36">
       <c r="A289" s="26"/>
       <c r="B289" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26555,7 +26555,7 @@
       </c>
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" ht="36">
       <c r="A290" s="26"/>
       <c r="B290" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26587,7 +26587,7 @@
       </c>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" ht="36">
       <c r="A291" s="26"/>
       <c r="B291" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26619,7 +26619,7 @@
       </c>
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" ht="36">
       <c r="A292" s="26"/>
       <c r="B292" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26651,7 +26651,7 @@
       </c>
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" ht="36">
       <c r="A293" s="26"/>
       <c r="B293" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26683,7 +26683,7 @@
       </c>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" ht="36">
       <c r="A294" s="26"/>
       <c r="B294" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26715,7 +26715,7 @@
       </c>
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" ht="36">
       <c r="A295" s="26"/>
       <c r="B295" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26747,7 +26747,7 @@
       </c>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" ht="36">
       <c r="A296" s="26"/>
       <c r="B296" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26779,7 +26779,7 @@
       </c>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" ht="36">
       <c r="A297" s="26"/>
       <c r="B297" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" ht="36">
       <c r="A298" s="26"/>
       <c r="B298" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26843,7 +26843,7 @@
       </c>
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" ht="36">
       <c r="A299" s="26"/>
       <c r="B299" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26875,7 +26875,7 @@
       </c>
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" ht="36">
       <c r="A300" s="26"/>
       <c r="B300" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26907,7 +26907,7 @@
       </c>
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" ht="36">
       <c r="A301" s="26"/>
       <c r="B301" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26939,7 +26939,7 @@
       </c>
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" ht="36">
       <c r="A302" s="26"/>
       <c r="B302" s="15" t="str">
         <f t="shared" si="30"/>
@@ -26971,7 +26971,7 @@
       </c>
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" ht="36">
       <c r="A303" s="26"/>
       <c r="B303" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27003,7 +27003,7 @@
       </c>
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" ht="36">
       <c r="A304" s="26"/>
       <c r="B304" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27035,7 +27035,7 @@
       </c>
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" ht="36">
       <c r="A305" s="26"/>
       <c r="B305" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27067,7 +27067,7 @@
       </c>
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:9" ht="36">
       <c r="A306" s="26"/>
       <c r="B306" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27099,7 +27099,7 @@
       </c>
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" ht="36">
       <c r="A307" s="26"/>
       <c r="B307" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27131,7 +27131,7 @@
       </c>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" ht="36">
       <c r="A308" s="26"/>
       <c r="B308" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27163,7 +27163,7 @@
       </c>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" ht="36">
       <c r="A309" s="26"/>
       <c r="B309" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" ht="36">
       <c r="A310" s="26"/>
       <c r="B310" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27227,7 +27227,7 @@
       </c>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" ht="36">
       <c r="A311" s="26"/>
       <c r="B311" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27259,7 +27259,7 @@
       </c>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" ht="36">
       <c r="A312" s="26"/>
       <c r="B312" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27291,7 +27291,7 @@
       </c>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" ht="36">
       <c r="A313" s="26"/>
       <c r="B313" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27323,7 +27323,7 @@
       </c>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" ht="36">
       <c r="A314" s="26"/>
       <c r="B314" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27355,7 +27355,7 @@
       </c>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" ht="36">
       <c r="A315" s="26"/>
       <c r="B315" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27387,7 +27387,7 @@
       </c>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" ht="36">
       <c r="A316" s="26"/>
       <c r="B316" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27419,7 +27419,7 @@
       </c>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" ht="36">
       <c r="A317" s="26"/>
       <c r="B317" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27451,7 +27451,7 @@
       </c>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" ht="36">
       <c r="A318" s="26"/>
       <c r="B318" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27483,7 +27483,7 @@
       </c>
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" ht="36">
       <c r="A319" s="26"/>
       <c r="B319" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27515,7 +27515,7 @@
       </c>
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" ht="36">
       <c r="A320" s="26"/>
       <c r="B320" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27547,7 +27547,7 @@
       </c>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" ht="36">
       <c r="A321" s="26"/>
       <c r="B321" s="15" t="str">
         <f t="shared" si="30"/>
@@ -27579,7 +27579,7 @@
       </c>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" ht="36">
       <c r="A322" s="26"/>
       <c r="B322" s="15" t="str">
         <f t="shared" ref="B322:B385" si="37">IFERROR("@" &amp; MID(A322, SEARCH("{", A322) + 1, SEARCH(",", A322) - SEARCH("{", A322) - 1), "")</f>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" ht="36">
       <c r="A323" s="26"/>
       <c r="B323" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27643,7 +27643,7 @@
       </c>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" ht="36">
       <c r="A324" s="26"/>
       <c r="B324" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27675,7 +27675,7 @@
       </c>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" ht="36">
       <c r="A325" s="26"/>
       <c r="B325" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27707,7 +27707,7 @@
       </c>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" ht="36">
       <c r="A326" s="26"/>
       <c r="B326" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27739,7 +27739,7 @@
       </c>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" ht="36">
       <c r="A327" s="26"/>
       <c r="B327" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27771,7 +27771,7 @@
       </c>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" ht="36">
       <c r="A328" s="26"/>
       <c r="B328" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27803,7 +27803,7 @@
       </c>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" ht="36">
       <c r="A329" s="26"/>
       <c r="B329" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27835,7 +27835,7 @@
       </c>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" ht="36">
       <c r="A330" s="26"/>
       <c r="B330" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27867,7 +27867,7 @@
       </c>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" ht="36">
       <c r="A331" s="26"/>
       <c r="B331" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27899,7 +27899,7 @@
       </c>
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" ht="36">
       <c r="A332" s="26"/>
       <c r="B332" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" ht="36">
       <c r="A333" s="26"/>
       <c r="B333" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27963,7 +27963,7 @@
       </c>
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" ht="36">
       <c r="A334" s="26"/>
       <c r="B334" s="15" t="str">
         <f t="shared" si="37"/>
@@ -27995,7 +27995,7 @@
       </c>
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" ht="36">
       <c r="A335" s="26"/>
       <c r="B335" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" ht="36">
       <c r="A336" s="26"/>
       <c r="B336" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28059,7 +28059,7 @@
       </c>
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:9" ht="36">
       <c r="A337" s="26"/>
       <c r="B337" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28091,7 +28091,7 @@
       </c>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:9" ht="36">
       <c r="A338" s="26"/>
       <c r="B338" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28123,7 +28123,7 @@
       </c>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:9" ht="36">
       <c r="A339" s="26"/>
       <c r="B339" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28155,7 +28155,7 @@
       </c>
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:9" ht="36">
       <c r="A340" s="26"/>
       <c r="B340" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28187,7 +28187,7 @@
       </c>
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:9" ht="36">
       <c r="A341" s="26"/>
       <c r="B341" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28219,7 +28219,7 @@
       </c>
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:9" ht="36">
       <c r="A342" s="26"/>
       <c r="B342" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28251,7 +28251,7 @@
       </c>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:9" ht="36">
       <c r="A343" s="26"/>
       <c r="B343" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28283,7 +28283,7 @@
       </c>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:9" ht="36">
       <c r="A344" s="26"/>
       <c r="B344" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28315,7 +28315,7 @@
       </c>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:9" ht="36">
       <c r="A345" s="26"/>
       <c r="B345" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28347,7 +28347,7 @@
       </c>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:9" ht="36">
       <c r="A346" s="26"/>
       <c r="B346" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28379,7 +28379,7 @@
       </c>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:9" ht="36">
       <c r="A347" s="26"/>
       <c r="B347" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28411,7 +28411,7 @@
       </c>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:9" ht="36">
       <c r="A348" s="26"/>
       <c r="B348" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:9" ht="36">
       <c r="A349" s="26"/>
       <c r="B349" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28475,7 +28475,7 @@
       </c>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:9" ht="36">
       <c r="A350" s="26"/>
       <c r="B350" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28507,7 +28507,7 @@
       </c>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:9" ht="36">
       <c r="A351" s="26"/>
       <c r="B351" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28539,7 +28539,7 @@
       </c>
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:9" ht="36">
       <c r="A352" s="26"/>
       <c r="B352" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28571,7 +28571,7 @@
       </c>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:9" ht="36">
       <c r="A353" s="26"/>
       <c r="B353" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28603,7 +28603,7 @@
       </c>
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:9" ht="36">
       <c r="A354" s="26"/>
       <c r="B354" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28635,7 +28635,7 @@
       </c>
       <c r="I354" s="1"/>
     </row>
-    <row r="355" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:9" ht="36">
       <c r="A355" s="26"/>
       <c r="B355" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28667,7 +28667,7 @@
       </c>
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:9" ht="36">
       <c r="A356" s="26"/>
       <c r="B356" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28699,7 +28699,7 @@
       </c>
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:9" ht="36">
       <c r="A357" s="26"/>
       <c r="B357" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28731,7 +28731,7 @@
       </c>
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:9" ht="36">
       <c r="A358" s="26"/>
       <c r="B358" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28763,7 +28763,7 @@
       </c>
       <c r="I358" s="1"/>
     </row>
-    <row r="359" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:9" ht="36">
       <c r="A359" s="26"/>
       <c r="B359" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28795,7 +28795,7 @@
       </c>
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:9" ht="36">
       <c r="A360" s="26"/>
       <c r="B360" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28827,7 +28827,7 @@
       </c>
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:9" ht="36">
       <c r="A361" s="26"/>
       <c r="B361" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28859,7 +28859,7 @@
       </c>
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:9" ht="36">
       <c r="A362" s="26"/>
       <c r="B362" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28891,7 +28891,7 @@
       </c>
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:9" ht="36">
       <c r="A363" s="26"/>
       <c r="B363" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28923,7 +28923,7 @@
       </c>
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:9" ht="36">
       <c r="A364" s="26"/>
       <c r="B364" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28955,7 +28955,7 @@
       </c>
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:9" ht="36">
       <c r="A365" s="26"/>
       <c r="B365" s="15" t="str">
         <f t="shared" si="37"/>
@@ -28987,7 +28987,7 @@
       </c>
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:9" ht="36">
       <c r="A366" s="26"/>
       <c r="B366" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29019,7 +29019,7 @@
       </c>
       <c r="I366" s="1"/>
     </row>
-    <row r="367" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:9" ht="36">
       <c r="A367" s="26"/>
       <c r="B367" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29051,7 +29051,7 @@
       </c>
       <c r="I367" s="1"/>
     </row>
-    <row r="368" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:9" ht="36">
       <c r="A368" s="26"/>
       <c r="B368" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29083,7 +29083,7 @@
       </c>
       <c r="I368" s="1"/>
     </row>
-    <row r="369" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:9" ht="36">
       <c r="A369" s="26"/>
       <c r="B369" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29115,7 +29115,7 @@
       </c>
       <c r="I369" s="1"/>
     </row>
-    <row r="370" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:9" ht="36">
       <c r="A370" s="26"/>
       <c r="B370" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29147,7 +29147,7 @@
       </c>
       <c r="I370" s="1"/>
     </row>
-    <row r="371" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:9" ht="36">
       <c r="A371" s="26"/>
       <c r="B371" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29179,7 +29179,7 @@
       </c>
       <c r="I371" s="1"/>
     </row>
-    <row r="372" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:9" ht="36">
       <c r="A372" s="26"/>
       <c r="B372" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29211,7 +29211,7 @@
       </c>
       <c r="I372" s="1"/>
     </row>
-    <row r="373" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:9" ht="36">
       <c r="A373" s="26"/>
       <c r="B373" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29243,7 +29243,7 @@
       </c>
       <c r="I373" s="1"/>
     </row>
-    <row r="374" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:9" ht="36">
       <c r="A374" s="26"/>
       <c r="B374" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29275,7 +29275,7 @@
       </c>
       <c r="I374" s="1"/>
     </row>
-    <row r="375" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:9" ht="36">
       <c r="A375" s="26"/>
       <c r="B375" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29307,7 +29307,7 @@
       </c>
       <c r="I375" s="1"/>
     </row>
-    <row r="376" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:9" ht="36">
       <c r="A376" s="26"/>
       <c r="B376" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29339,7 +29339,7 @@
       </c>
       <c r="I376" s="1"/>
     </row>
-    <row r="377" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:9" ht="36">
       <c r="A377" s="26"/>
       <c r="B377" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29371,7 +29371,7 @@
       </c>
       <c r="I377" s="1"/>
     </row>
-    <row r="378" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:9" ht="36">
       <c r="A378" s="26"/>
       <c r="B378" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29403,7 +29403,7 @@
       </c>
       <c r="I378" s="1"/>
     </row>
-    <row r="379" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:9" ht="36">
       <c r="A379" s="26"/>
       <c r="B379" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29435,7 +29435,7 @@
       </c>
       <c r="I379" s="1"/>
     </row>
-    <row r="380" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:9" ht="36">
       <c r="A380" s="26"/>
       <c r="B380" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29467,7 +29467,7 @@
       </c>
       <c r="I380" s="1"/>
     </row>
-    <row r="381" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:9" ht="36">
       <c r="A381" s="26"/>
       <c r="B381" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29499,7 +29499,7 @@
       </c>
       <c r="I381" s="1"/>
     </row>
-    <row r="382" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:9" ht="36">
       <c r="A382" s="26"/>
       <c r="B382" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29531,7 +29531,7 @@
       </c>
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:9" ht="36">
       <c r="A383" s="26"/>
       <c r="B383" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29563,7 +29563,7 @@
       </c>
       <c r="I383" s="1"/>
     </row>
-    <row r="384" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:9" ht="36">
       <c r="A384" s="26"/>
       <c r="B384" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29595,7 +29595,7 @@
       </c>
       <c r="I384" s="1"/>
     </row>
-    <row r="385" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:9" ht="36">
       <c r="A385" s="26"/>
       <c r="B385" s="15" t="str">
         <f t="shared" si="37"/>
@@ -29627,7 +29627,7 @@
       </c>
       <c r="I385" s="1"/>
     </row>
-    <row r="386" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:9" ht="36">
       <c r="A386" s="26"/>
       <c r="B386" s="15" t="str">
         <f t="shared" ref="B386:B449" si="44">IFERROR("@" &amp; MID(A386, SEARCH("{", A386) + 1, SEARCH(",", A386) - SEARCH("{", A386) - 1), "")</f>
@@ -29659,7 +29659,7 @@
       </c>
       <c r="I386" s="1"/>
     </row>
-    <row r="387" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:9" ht="36">
       <c r="A387" s="26"/>
       <c r="B387" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29691,7 +29691,7 @@
       </c>
       <c r="I387" s="1"/>
     </row>
-    <row r="388" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:9" ht="36">
       <c r="A388" s="26"/>
       <c r="B388" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29723,7 +29723,7 @@
       </c>
       <c r="I388" s="1"/>
     </row>
-    <row r="389" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:9" ht="36">
       <c r="A389" s="26"/>
       <c r="B389" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29755,7 +29755,7 @@
       </c>
       <c r="I389" s="1"/>
     </row>
-    <row r="390" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:9" ht="36">
       <c r="A390" s="26"/>
       <c r="B390" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29787,7 +29787,7 @@
       </c>
       <c r="I390" s="1"/>
     </row>
-    <row r="391" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:9" ht="36">
       <c r="A391" s="26"/>
       <c r="B391" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29819,7 +29819,7 @@
       </c>
       <c r="I391" s="1"/>
     </row>
-    <row r="392" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:9" ht="36">
       <c r="A392" s="26"/>
       <c r="B392" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29851,7 +29851,7 @@
       </c>
       <c r="I392" s="1"/>
     </row>
-    <row r="393" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:9" ht="36">
       <c r="A393" s="26"/>
       <c r="B393" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29883,7 +29883,7 @@
       </c>
       <c r="I393" s="1"/>
     </row>
-    <row r="394" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:9" ht="36">
       <c r="A394" s="26"/>
       <c r="B394" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29915,7 +29915,7 @@
       </c>
       <c r="I394" s="1"/>
     </row>
-    <row r="395" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:9" ht="36">
       <c r="A395" s="26"/>
       <c r="B395" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29947,7 +29947,7 @@
       </c>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:9" ht="36">
       <c r="A396" s="26"/>
       <c r="B396" s="15" t="str">
         <f t="shared" si="44"/>
@@ -29979,7 +29979,7 @@
       </c>
       <c r="I396" s="1"/>
     </row>
-    <row r="397" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:9" ht="36">
       <c r="A397" s="26"/>
       <c r="B397" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30011,7 +30011,7 @@
       </c>
       <c r="I397" s="1"/>
     </row>
-    <row r="398" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:9" ht="36">
       <c r="A398" s="26"/>
       <c r="B398" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30043,7 +30043,7 @@
       </c>
       <c r="I398" s="1"/>
     </row>
-    <row r="399" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:9" ht="36">
       <c r="A399" s="26"/>
       <c r="B399" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30075,7 +30075,7 @@
       </c>
       <c r="I399" s="1"/>
     </row>
-    <row r="400" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:9" ht="36">
       <c r="A400" s="26"/>
       <c r="B400" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30107,7 +30107,7 @@
       </c>
       <c r="I400" s="1"/>
     </row>
-    <row r="401" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:9" ht="36">
       <c r="A401" s="26"/>
       <c r="B401" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30139,7 +30139,7 @@
       </c>
       <c r="I401" s="1"/>
     </row>
-    <row r="402" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:9" ht="36">
       <c r="A402" s="26"/>
       <c r="B402" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30171,7 +30171,7 @@
       </c>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:9" ht="36">
       <c r="A403" s="26"/>
       <c r="B403" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30203,7 +30203,7 @@
       </c>
       <c r="I403" s="1"/>
     </row>
-    <row r="404" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" ht="36">
       <c r="A404" s="26"/>
       <c r="B404" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30235,7 +30235,7 @@
       </c>
       <c r="I404" s="1"/>
     </row>
-    <row r="405" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" ht="36">
       <c r="A405" s="26"/>
       <c r="B405" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30267,7 +30267,7 @@
       </c>
       <c r="I405" s="1"/>
     </row>
-    <row r="406" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:9" ht="36">
       <c r="A406" s="26"/>
       <c r="B406" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30299,7 +30299,7 @@
       </c>
       <c r="I406" s="1"/>
     </row>
-    <row r="407" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" ht="36">
       <c r="A407" s="26"/>
       <c r="B407" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30331,7 +30331,7 @@
       </c>
       <c r="I407" s="1"/>
     </row>
-    <row r="408" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" ht="36">
       <c r="A408" s="26"/>
       <c r="B408" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30363,7 +30363,7 @@
       </c>
       <c r="I408" s="1"/>
     </row>
-    <row r="409" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" ht="36">
       <c r="A409" s="26"/>
       <c r="B409" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30395,7 +30395,7 @@
       </c>
       <c r="I409" s="1"/>
     </row>
-    <row r="410" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" ht="36">
       <c r="A410" s="26"/>
       <c r="B410" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30427,7 +30427,7 @@
       </c>
       <c r="I410" s="1"/>
     </row>
-    <row r="411" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" ht="36">
       <c r="A411" s="26"/>
       <c r="B411" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30459,7 +30459,7 @@
       </c>
       <c r="I411" s="1"/>
     </row>
-    <row r="412" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" ht="36">
       <c r="A412" s="26"/>
       <c r="B412" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30491,7 +30491,7 @@
       </c>
       <c r="I412" s="1"/>
     </row>
-    <row r="413" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" ht="36">
       <c r="A413" s="26"/>
       <c r="B413" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30523,7 +30523,7 @@
       </c>
       <c r="I413" s="1"/>
     </row>
-    <row r="414" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" ht="36">
       <c r="A414" s="26"/>
       <c r="B414" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30555,7 +30555,7 @@
       </c>
       <c r="I414" s="1"/>
     </row>
-    <row r="415" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" ht="36">
       <c r="A415" s="26"/>
       <c r="B415" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30587,7 +30587,7 @@
       </c>
       <c r="I415" s="1"/>
     </row>
-    <row r="416" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" ht="36">
       <c r="A416" s="26"/>
       <c r="B416" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30619,7 +30619,7 @@
       </c>
       <c r="I416" s="1"/>
     </row>
-    <row r="417" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" ht="36">
       <c r="A417" s="26"/>
       <c r="B417" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30651,7 +30651,7 @@
       </c>
       <c r="I417" s="1"/>
     </row>
-    <row r="418" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" ht="36">
       <c r="A418" s="26"/>
       <c r="B418" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30683,7 +30683,7 @@
       </c>
       <c r="I418" s="1"/>
     </row>
-    <row r="419" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" ht="36">
       <c r="A419" s="26"/>
       <c r="B419" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30715,7 +30715,7 @@
       </c>
       <c r="I419" s="1"/>
     </row>
-    <row r="420" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" ht="36">
       <c r="A420" s="26"/>
       <c r="B420" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30747,7 +30747,7 @@
       </c>
       <c r="I420" s="1"/>
     </row>
-    <row r="421" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" ht="36">
       <c r="A421" s="26"/>
       <c r="B421" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30779,7 +30779,7 @@
       </c>
       <c r="I421" s="1"/>
     </row>
-    <row r="422" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" ht="36">
       <c r="A422" s="26"/>
       <c r="B422" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30811,7 +30811,7 @@
       </c>
       <c r="I422" s="1"/>
     </row>
-    <row r="423" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" ht="36">
       <c r="A423" s="26"/>
       <c r="B423" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30843,7 +30843,7 @@
       </c>
       <c r="I423" s="1"/>
     </row>
-    <row r="424" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" ht="36">
       <c r="A424" s="26"/>
       <c r="B424" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30875,7 +30875,7 @@
       </c>
       <c r="I424" s="1"/>
     </row>
-    <row r="425" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" ht="36">
       <c r="A425" s="26"/>
       <c r="B425" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30907,7 +30907,7 @@
       </c>
       <c r="I425" s="1"/>
     </row>
-    <row r="426" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" ht="36">
       <c r="A426" s="26"/>
       <c r="B426" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30939,7 +30939,7 @@
       </c>
       <c r="I426" s="1"/>
     </row>
-    <row r="427" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" ht="36">
       <c r="A427" s="26"/>
       <c r="B427" s="15" t="str">
         <f t="shared" si="44"/>
@@ -30971,7 +30971,7 @@
       </c>
       <c r="I427" s="1"/>
     </row>
-    <row r="428" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" ht="36">
       <c r="A428" s="26"/>
       <c r="B428" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31003,7 +31003,7 @@
       </c>
       <c r="I428" s="1"/>
     </row>
-    <row r="429" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" ht="36">
       <c r="A429" s="26"/>
       <c r="B429" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31035,7 +31035,7 @@
       </c>
       <c r="I429" s="1"/>
     </row>
-    <row r="430" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" ht="36">
       <c r="A430" s="26"/>
       <c r="B430" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31067,7 +31067,7 @@
       </c>
       <c r="I430" s="1"/>
     </row>
-    <row r="431" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" ht="36">
       <c r="A431" s="26"/>
       <c r="B431" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31099,7 +31099,7 @@
       </c>
       <c r="I431" s="1"/>
     </row>
-    <row r="432" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" ht="36">
       <c r="A432" s="26"/>
       <c r="B432" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31131,7 +31131,7 @@
       </c>
       <c r="I432" s="1"/>
     </row>
-    <row r="433" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:9" ht="36">
       <c r="A433" s="26"/>
       <c r="B433" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31163,7 +31163,7 @@
       </c>
       <c r="I433" s="1"/>
     </row>
-    <row r="434" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:9" ht="36">
       <c r="A434" s="26"/>
       <c r="B434" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31195,7 +31195,7 @@
       </c>
       <c r="I434" s="1"/>
     </row>
-    <row r="435" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:9" ht="36">
       <c r="A435" s="26"/>
       <c r="B435" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31227,7 +31227,7 @@
       </c>
       <c r="I435" s="1"/>
     </row>
-    <row r="436" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:9" ht="36">
       <c r="A436" s="26"/>
       <c r="B436" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31259,7 +31259,7 @@
       </c>
       <c r="I436" s="1"/>
     </row>
-    <row r="437" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:9" ht="36">
       <c r="A437" s="26"/>
       <c r="B437" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31291,7 +31291,7 @@
       </c>
       <c r="I437" s="1"/>
     </row>
-    <row r="438" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:9" ht="36">
       <c r="A438" s="26"/>
       <c r="B438" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31323,7 +31323,7 @@
       </c>
       <c r="I438" s="1"/>
     </row>
-    <row r="439" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:9" ht="36">
       <c r="A439" s="26"/>
       <c r="B439" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31355,7 +31355,7 @@
       </c>
       <c r="I439" s="1"/>
     </row>
-    <row r="440" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:9" ht="36">
       <c r="A440" s="26"/>
       <c r="B440" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31387,7 +31387,7 @@
       </c>
       <c r="I440" s="1"/>
     </row>
-    <row r="441" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:9" ht="36">
       <c r="A441" s="26"/>
       <c r="B441" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31419,7 +31419,7 @@
       </c>
       <c r="I441" s="1"/>
     </row>
-    <row r="442" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:9" ht="36">
       <c r="A442" s="26"/>
       <c r="B442" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31451,7 +31451,7 @@
       </c>
       <c r="I442" s="1"/>
     </row>
-    <row r="443" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:9" ht="36">
       <c r="A443" s="26"/>
       <c r="B443" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31483,7 +31483,7 @@
       </c>
       <c r="I443" s="1"/>
     </row>
-    <row r="444" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:9" ht="36">
       <c r="A444" s="26"/>
       <c r="B444" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31515,7 +31515,7 @@
       </c>
       <c r="I444" s="1"/>
     </row>
-    <row r="445" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:9" ht="36">
       <c r="A445" s="26"/>
       <c r="B445" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31547,7 +31547,7 @@
       </c>
       <c r="I445" s="1"/>
     </row>
-    <row r="446" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:9" ht="36">
       <c r="A446" s="26"/>
       <c r="B446" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31579,7 +31579,7 @@
       </c>
       <c r="I446" s="1"/>
     </row>
-    <row r="447" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:9" ht="36">
       <c r="A447" s="26"/>
       <c r="B447" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31611,7 +31611,7 @@
       </c>
       <c r="I447" s="1"/>
     </row>
-    <row r="448" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:9" ht="36">
       <c r="A448" s="26"/>
       <c r="B448" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31643,7 +31643,7 @@
       </c>
       <c r="I448" s="1"/>
     </row>
-    <row r="449" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:9" ht="36">
       <c r="A449" s="26"/>
       <c r="B449" s="15" t="str">
         <f t="shared" si="44"/>
@@ -31675,7 +31675,7 @@
       </c>
       <c r="I449" s="1"/>
     </row>
-    <row r="450" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" ht="36">
       <c r="A450" s="26"/>
       <c r="B450" s="15" t="str">
         <f t="shared" ref="B450:B508" si="51">IFERROR("@" &amp; MID(A450, SEARCH("{", A450) + 1, SEARCH(",", A450) - SEARCH("{", A450) - 1), "")</f>
@@ -31707,7 +31707,7 @@
       </c>
       <c r="I450" s="1"/>
     </row>
-    <row r="451" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" ht="36">
       <c r="A451" s="26"/>
       <c r="B451" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31739,7 +31739,7 @@
       </c>
       <c r="I451" s="1"/>
     </row>
-    <row r="452" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:9" ht="36">
       <c r="A452" s="26"/>
       <c r="B452" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31771,7 +31771,7 @@
       </c>
       <c r="I452" s="1"/>
     </row>
-    <row r="453" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:9" ht="36">
       <c r="A453" s="26"/>
       <c r="B453" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31803,7 +31803,7 @@
       </c>
       <c r="I453" s="1"/>
     </row>
-    <row r="454" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:9" ht="36">
       <c r="A454" s="26"/>
       <c r="B454" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31835,7 +31835,7 @@
       </c>
       <c r="I454" s="1"/>
     </row>
-    <row r="455" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:9" ht="36">
       <c r="A455" s="26"/>
       <c r="B455" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31867,7 +31867,7 @@
       </c>
       <c r="I455" s="1"/>
     </row>
-    <row r="456" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:9" ht="36">
       <c r="A456" s="26"/>
       <c r="B456" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31899,7 +31899,7 @@
       </c>
       <c r="I456" s="1"/>
     </row>
-    <row r="457" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:9" ht="36">
       <c r="A457" s="26"/>
       <c r="B457" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31931,7 +31931,7 @@
       </c>
       <c r="I457" s="1"/>
     </row>
-    <row r="458" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:9" ht="36">
       <c r="A458" s="26"/>
       <c r="B458" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31963,7 +31963,7 @@
       </c>
       <c r="I458" s="1"/>
     </row>
-    <row r="459" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:9" ht="36">
       <c r="A459" s="26"/>
       <c r="B459" s="15" t="str">
         <f t="shared" si="51"/>
@@ -31995,7 +31995,7 @@
       </c>
       <c r="I459" s="1"/>
     </row>
-    <row r="460" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:9" ht="36">
       <c r="A460" s="26"/>
       <c r="B460" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32027,7 +32027,7 @@
       </c>
       <c r="I460" s="1"/>
     </row>
-    <row r="461" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:9" ht="36">
       <c r="A461" s="26"/>
       <c r="B461" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="I461" s="1"/>
     </row>
-    <row r="462" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:9" ht="36">
       <c r="A462" s="26"/>
       <c r="B462" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32091,7 +32091,7 @@
       </c>
       <c r="I462" s="1"/>
     </row>
-    <row r="463" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:9" ht="36">
       <c r="A463" s="26"/>
       <c r="B463" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32123,7 +32123,7 @@
       </c>
       <c r="I463" s="1"/>
     </row>
-    <row r="464" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:9" ht="36">
       <c r="A464" s="26"/>
       <c r="B464" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32155,7 +32155,7 @@
       </c>
       <c r="I464" s="1"/>
     </row>
-    <row r="465" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:9" ht="36">
       <c r="A465" s="26"/>
       <c r="B465" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32187,7 +32187,7 @@
       </c>
       <c r="I465" s="1"/>
     </row>
-    <row r="466" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:9" ht="36">
       <c r="A466" s="26"/>
       <c r="B466" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32219,7 +32219,7 @@
       </c>
       <c r="I466" s="1"/>
     </row>
-    <row r="467" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:9" ht="36">
       <c r="A467" s="26"/>
       <c r="B467" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32251,7 +32251,7 @@
       </c>
       <c r="I467" s="1"/>
     </row>
-    <row r="468" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:9" ht="36">
       <c r="A468" s="26"/>
       <c r="B468" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32283,7 +32283,7 @@
       </c>
       <c r="I468" s="1"/>
     </row>
-    <row r="469" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:9" ht="36">
       <c r="A469" s="26"/>
       <c r="B469" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32315,7 +32315,7 @@
       </c>
       <c r="I469" s="1"/>
     </row>
-    <row r="470" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:9" ht="36">
       <c r="A470" s="26"/>
       <c r="B470" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32347,7 +32347,7 @@
       </c>
       <c r="I470" s="1"/>
     </row>
-    <row r="471" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:9" ht="36">
       <c r="A471" s="26"/>
       <c r="B471" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32379,7 +32379,7 @@
       </c>
       <c r="I471" s="1"/>
     </row>
-    <row r="472" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:9" ht="36">
       <c r="A472" s="26"/>
       <c r="B472" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32411,7 +32411,7 @@
       </c>
       <c r="I472" s="1"/>
     </row>
-    <row r="473" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:9" ht="36">
       <c r="A473" s="26"/>
       <c r="B473" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32443,7 +32443,7 @@
       </c>
       <c r="I473" s="1"/>
     </row>
-    <row r="474" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:9" ht="36">
       <c r="A474" s="26"/>
       <c r="B474" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32475,7 +32475,7 @@
       </c>
       <c r="I474" s="1"/>
     </row>
-    <row r="475" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:9" ht="36">
       <c r="A475" s="26"/>
       <c r="B475" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32507,7 +32507,7 @@
       </c>
       <c r="I475" s="1"/>
     </row>
-    <row r="476" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:9" ht="36">
       <c r="A476" s="26"/>
       <c r="B476" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32539,7 +32539,7 @@
       </c>
       <c r="I476" s="1"/>
     </row>
-    <row r="477" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:9" ht="36">
       <c r="A477" s="26"/>
       <c r="B477" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32571,7 +32571,7 @@
       </c>
       <c r="I477" s="1"/>
     </row>
-    <row r="478" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:9" ht="36">
       <c r="A478" s="26"/>
       <c r="B478" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32603,7 +32603,7 @@
       </c>
       <c r="I478" s="1"/>
     </row>
-    <row r="479" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:9" ht="36">
       <c r="A479" s="26"/>
       <c r="B479" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32635,7 +32635,7 @@
       </c>
       <c r="I479" s="1"/>
     </row>
-    <row r="480" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:9" ht="36">
       <c r="A480" s="26"/>
       <c r="B480" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32667,7 +32667,7 @@
       </c>
       <c r="I480" s="1"/>
     </row>
-    <row r="481" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:9" ht="36">
       <c r="A481" s="26"/>
       <c r="B481" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32699,7 +32699,7 @@
       </c>
       <c r="I481" s="1"/>
     </row>
-    <row r="482" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:9" ht="36">
       <c r="A482" s="26"/>
       <c r="B482" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32731,7 +32731,7 @@
       </c>
       <c r="I482" s="1"/>
     </row>
-    <row r="483" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:9" ht="36">
       <c r="A483" s="26"/>
       <c r="B483" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32763,7 +32763,7 @@
       </c>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:9" ht="36">
       <c r="A484" s="26"/>
       <c r="B484" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32795,7 +32795,7 @@
       </c>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:9" ht="36">
       <c r="A485" s="26"/>
       <c r="B485" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32827,7 +32827,7 @@
       </c>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:9" ht="36">
       <c r="A486" s="26"/>
       <c r="B486" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32859,7 +32859,7 @@
       </c>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:9" ht="36">
       <c r="A487" s="26"/>
       <c r="B487" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32891,7 +32891,7 @@
       </c>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:9" ht="36">
       <c r="A488" s="26"/>
       <c r="B488" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32923,7 +32923,7 @@
       </c>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:9" ht="36">
       <c r="A489" s="26"/>
       <c r="B489" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32955,7 +32955,7 @@
       </c>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:9" ht="36">
       <c r="A490" s="26"/>
       <c r="B490" s="15" t="str">
         <f t="shared" si="51"/>
@@ -32987,7 +32987,7 @@
       </c>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:9" ht="36">
       <c r="A491" s="26"/>
       <c r="B491" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33019,7 +33019,7 @@
       </c>
       <c r="I491" s="1"/>
     </row>
-    <row r="492" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:9" ht="36">
       <c r="A492" s="26"/>
       <c r="B492" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33051,7 +33051,7 @@
       </c>
       <c r="I492" s="1"/>
     </row>
-    <row r="493" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:9" ht="36">
       <c r="A493" s="26"/>
       <c r="B493" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33083,7 +33083,7 @@
       </c>
       <c r="I493" s="1"/>
     </row>
-    <row r="494" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:9" ht="36">
       <c r="A494" s="26"/>
       <c r="B494" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33115,7 +33115,7 @@
       </c>
       <c r="I494" s="1"/>
     </row>
-    <row r="495" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:9" ht="36">
       <c r="A495" s="26"/>
       <c r="B495" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33147,7 +33147,7 @@
       </c>
       <c r="I495" s="1"/>
     </row>
-    <row r="496" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:9" ht="36">
       <c r="A496" s="26"/>
       <c r="B496" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33179,7 +33179,7 @@
       </c>
       <c r="I496" s="1"/>
     </row>
-    <row r="497" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:9" ht="36">
       <c r="A497" s="26"/>
       <c r="B497" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33211,7 +33211,7 @@
       </c>
       <c r="I497" s="1"/>
     </row>
-    <row r="498" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:9" ht="36">
       <c r="A498" s="26"/>
       <c r="B498" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33243,7 +33243,7 @@
       </c>
       <c r="I498" s="1"/>
     </row>
-    <row r="499" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:9" ht="36">
       <c r="A499" s="26"/>
       <c r="B499" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33275,7 +33275,7 @@
       </c>
       <c r="I499" s="1"/>
     </row>
-    <row r="500" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:9" ht="36">
       <c r="A500" s="26"/>
       <c r="B500" s="15" t="str">
         <f t="shared" si="51"/>
@@ -33307,7 +33307,7 @@
       </c>
       <c r="I500" s="1"/>
     </row>
-    <row r="501" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:9" ht="36">
       <c r="B501" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
@@ -33329,7 +33329,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:9" ht="36">
       <c r="B502" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
@@ -33351,7 +33351,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:9" ht="36">
       <c r="B503" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
@@ -33373,7 +33373,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:9" ht="36">
       <c r="B504" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
@@ -33395,7 +33395,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:9" ht="36">
       <c r="B505" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
@@ -33417,7 +33417,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:9" ht="36">
       <c r="B506" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
@@ -33439,7 +33439,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:9" ht="36">
       <c r="B507" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
@@ -33461,7 +33461,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:9" ht="36">
       <c r="B508" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
@@ -33523,185 +33523,185 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="88.85546875" customWidth="1"/>
     <col min="2" max="2" width="68.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="47.25" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="72.75" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="180">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="210">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="210">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="150">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="255">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="255">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="255">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="285">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="255">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="165">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="165">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="165">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="225">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="180">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="105">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="120">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="135">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
